--- a/data/trans_orig/P34B04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34B04-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC1D680C-D841-4F77-AE3B-9D2500D34F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DDB28C1-84E8-4CD8-AA6F-74EC69CAA296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{70DB49F0-78F0-4FD4-B46A-65EA9964DEEF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9306A1EB-BB2D-4B3C-B820-EB928ED492F7}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="408">
   <si>
     <t>Población según el número de días a la semana que realiza un entrenamiento físico deportivo como fútbol, baloncesto, ciclismo, natación de competición, judo, kárate o similares en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -91,1138 +91,1177 @@
     <t>0,09%</t>
   </si>
   <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>Ningun dia/semana</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>0,39%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
   </si>
   <si>
     <t>0,11%</t>
   </si>
   <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de días a la semana que realiza un entrenamiento físico deportivo como fútbol, baloncesto, ciclismo, natación de competición, judo, kárate o similares en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
   </si>
   <si>
     <t>0,05%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>Población según el número de días a la semana que realiza un entrenamiento físico deportivo como fútbol, baloncesto, ciclismo, natación de competición, judo, kárate o similares en 2023 (Tasa respuesta: 99,87%)</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
   </si>
   <si>
     <t>1,65%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>Ningun dia/semana</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
   </si>
   <si>
     <t>3,5%</t>
   </si>
   <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
   </si>
   <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de días a la semana que realiza un entrenamiento físico deportivo como fútbol, baloncesto, ciclismo, natación de competición, judo, kárate o similares en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>Población según el número de días a la semana que realiza un entrenamiento físico deportivo como fútbol, baloncesto, ciclismo, natación de competición, judo, kárate o similares en 2023 (Tasa respuesta: 99,87%)</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
     <t>87,2%</t>
   </si>
   <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
   </si>
   <si>
     <t>97,39%</t>
   </si>
   <si>
-    <t>96,72%</t>
+    <t>96,83%</t>
   </si>
   <si>
     <t>92,59%</t>
   </si>
   <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
   </si>
 </sst>
 </file>
@@ -1634,7 +1673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6AB81A-2122-45A9-A11C-73FA68842939}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D2A7BB-22E7-48D9-AD9A-E2C55AF0FEEB}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1863,10 +1902,10 @@
         <v>20</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -1875,13 +1914,13 @@
         <v>1064</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -1893,16 +1932,16 @@
         <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="7">
         <v>3</v>
@@ -1911,13 +1950,13 @@
         <v>2864</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -1926,13 +1965,13 @@
         <v>1719</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -1941,19 +1980,19 @@
         <v>4584</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="7">
         <v>8</v>
@@ -1962,13 +2001,13 @@
         <v>8252</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1992,19 +2031,19 @@
         <v>8252</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="7">
         <v>4</v>
@@ -2013,13 +2052,13 @@
         <v>3941</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -2028,13 +2067,13 @@
         <v>1015</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -2046,16 +2085,16 @@
         <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="7">
         <v>3</v>
@@ -2064,13 +2103,13 @@
         <v>2814</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2079,13 +2118,13 @@
         <v>2130</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -2097,16 +2136,16 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11" s="7">
         <v>882</v>
@@ -2115,13 +2154,13 @@
         <v>948844</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H11" s="7">
         <v>1242</v>
@@ -2130,13 +2169,13 @@
         <v>1331868</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M11" s="7">
         <v>2124</v>
@@ -2145,13 +2184,13 @@
         <v>2280713</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2166,13 +2205,13 @@
         <v>972575</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H12" s="7">
         <v>1247</v>
@@ -2181,13 +2220,13 @@
         <v>1337796</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M12" s="7">
         <v>2153</v>
@@ -2196,18 +2235,18 @@
         <v>2310372</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2219,13 +2258,13 @@
         <v>12357</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2240,7 +2279,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -2249,13 +2288,13 @@
         <v>12357</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2270,13 +2309,13 @@
         <v>11232</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2291,7 +2330,7 @@
         <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -2300,13 +2339,13 @@
         <v>11232</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2321,13 +2360,13 @@
         <v>43400</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -2336,13 +2375,13 @@
         <v>2898</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M15" s="7">
         <v>44</v>
@@ -2351,19 +2390,19 @@
         <v>46298</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="7">
         <v>32</v>
@@ -2372,13 +2411,13 @@
         <v>33049</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2387,13 +2426,13 @@
         <v>1962</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -2402,19 +2441,19 @@
         <v>35011</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="7">
         <v>84</v>
@@ -2423,13 +2462,13 @@
         <v>86074</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -2438,13 +2477,13 @@
         <v>9834</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M17" s="7">
         <v>94</v>
@@ -2453,19 +2492,19 @@
         <v>95908</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" s="7">
         <v>48</v>
@@ -2474,13 +2513,13 @@
         <v>49006</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -2489,13 +2528,13 @@
         <v>9007</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>57</v>
@@ -2504,19 +2543,19 @@
         <v>58013</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="7">
         <v>31</v>
@@ -2525,13 +2564,13 @@
         <v>30502</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -2540,13 +2579,13 @@
         <v>2153</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M19" s="7">
         <v>33</v>
@@ -2555,19 +2594,19 @@
         <v>32655</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7">
         <v>1598</v>
@@ -2576,13 +2615,13 @@
         <v>1698338</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H20" s="7">
         <v>1608</v>
@@ -2591,13 +2630,13 @@
         <v>1730055</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>3206</v>
@@ -2606,13 +2645,13 @@
         <v>3428393</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2627,13 +2666,13 @@
         <v>1963957</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
         <v>1634</v>
@@ -2642,13 +2681,13 @@
         <v>1755909</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
         <v>3490</v>
@@ -2657,18 +2696,18 @@
         <v>3719866</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2680,13 +2719,13 @@
         <v>1851</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2701,7 +2740,7 @@
         <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -2710,13 +2749,13 @@
         <v>1851</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2731,13 +2770,13 @@
         <v>2898</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -2752,7 +2791,7 @@
         <v>14</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -2761,13 +2800,13 @@
         <v>2898</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2782,13 +2821,13 @@
         <v>7372</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -2797,13 +2836,13 @@
         <v>3456</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
@@ -2812,19 +2851,19 @@
         <v>10827</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="7">
         <v>17</v>
@@ -2833,13 +2872,13 @@
         <v>15958</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2848,13 +2887,13 @@
         <v>4898</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -2863,19 +2902,19 @@
         <v>20856</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="7">
         <v>20</v>
@@ -2884,13 +2923,13 @@
         <v>22813</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2899,13 +2938,13 @@
         <v>1928</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M26" s="7">
         <v>22</v>
@@ -2914,19 +2953,19 @@
         <v>24741</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7">
         <v>7</v>
@@ -2935,13 +2974,13 @@
         <v>7241</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H27" s="7">
         <v>2</v>
@@ -2950,13 +2989,13 @@
         <v>1855</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M27" s="7">
         <v>9</v>
@@ -2965,19 +3004,19 @@
         <v>9096</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="7">
         <v>7</v>
@@ -2986,13 +3025,13 @@
         <v>8208</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -3001,7 +3040,7 @@
         <v>2744</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>12</v>
@@ -3016,19 +3055,19 @@
         <v>10951</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C29" s="7">
         <v>374</v>
@@ -3037,13 +3076,13 @@
         <v>414841</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H29" s="7">
         <v>400</v>
@@ -3052,13 +3091,13 @@
         <v>443751</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M29" s="7">
         <v>774</v>
@@ -3067,13 +3106,13 @@
         <v>858591</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3088,13 +3127,13 @@
         <v>481181</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H30" s="7">
         <v>412</v>
@@ -3103,13 +3142,13 @@
         <v>458631</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M30" s="7">
         <v>850</v>
@@ -3118,13 +3157,13 @@
         <v>939812</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,13 +3180,13 @@
         <v>16249</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3162,7 +3201,7 @@
         <v>14</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M31" s="7">
         <v>16</v>
@@ -3171,13 +3210,13 @@
         <v>16249</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>163</v>
+        <v>96</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>164</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3192,13 +3231,13 @@
         <v>14130</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3213,7 +3252,7 @@
         <v>14</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M32" s="7">
         <v>13</v>
@@ -3222,13 +3261,13 @@
         <v>14130</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3243,13 +3282,13 @@
         <v>54588</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H33" s="7">
         <v>6</v>
@@ -3261,10 +3300,10 @@
         <v>11</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="M33" s="7">
         <v>59</v>
@@ -3273,19 +3312,19 @@
         <v>62006</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>171</v>
+        <v>27</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>95</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" s="7">
         <v>52</v>
@@ -3294,10 +3333,10 @@
         <v>51871</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>173</v>
@@ -3312,7 +3351,7 @@
         <v>174</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>175</v>
@@ -3327,16 +3366,16 @@
         <v>176</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="7">
         <v>112</v>
@@ -3345,13 +3384,13 @@
         <v>117139</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H35" s="7">
         <v>12</v>
@@ -3360,13 +3399,13 @@
         <v>11762</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M35" s="7">
         <v>124</v>
@@ -3375,19 +3414,19 @@
         <v>128901</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C36" s="7">
         <v>59</v>
@@ -3396,13 +3435,13 @@
         <v>60188</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H36" s="7">
         <v>12</v>
@@ -3411,13 +3450,13 @@
         <v>11876</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>186</v>
+        <v>64</v>
       </c>
       <c r="M36" s="7">
         <v>71</v>
@@ -3426,19 +3465,19 @@
         <v>72065</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>46</v>
+        <v>185</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="7">
         <v>41</v>
@@ -3447,10 +3486,10 @@
         <v>41524</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>188</v>
@@ -3462,13 +3501,13 @@
         <v>7027</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>189</v>
+        <v>73</v>
       </c>
       <c r="M37" s="7">
         <v>47</v>
@@ -3477,19 +3516,19 @@
         <v>48551</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>191</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C38" s="7">
         <v>2854</v>
@@ -3498,13 +3537,13 @@
         <v>3062024</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H38" s="7">
         <v>3250</v>
@@ -3513,13 +3552,13 @@
         <v>3505673</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M38" s="7">
         <v>6104</v>
@@ -3528,13 +3567,13 @@
         <v>6567697</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,13 +3588,13 @@
         <v>3417714</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H39" s="7">
         <v>3293</v>
@@ -3564,13 +3603,13 @@
         <v>3552336</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M39" s="7">
         <v>6493</v>
@@ -3579,18 +3618,18 @@
         <v>6970050</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3609,7 +3648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC1D1BA3-6C61-468F-ABDE-F913483DC6A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1824CBD-63BF-4CBA-B4D6-2FF4C97C791F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3626,7 +3665,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3733,13 +3772,13 @@
         <v>5015</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>40</v>
+        <v>201</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3754,7 +3793,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -3763,13 +3802,13 @@
         <v>5015</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,13 +3823,13 @@
         <v>4977</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>40</v>
+        <v>201</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>205</v>
+        <v>72</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3805,7 +3844,7 @@
         <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -3814,13 +3853,13 @@
         <v>4977</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>207</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>166</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3835,13 +3874,13 @@
         <v>1004</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>121</v>
+        <v>204</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3856,7 +3895,7 @@
         <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -3865,19 +3904,19 @@
         <v>1004</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -3886,13 +3925,13 @@
         <v>888</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3907,7 +3946,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -3916,19 +3955,19 @@
         <v>888</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>32</v>
+        <v>205</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -3937,13 +3976,13 @@
         <v>3014</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -3952,13 +3991,13 @@
         <v>1958</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>209</v>
+        <v>29</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -3967,19 +4006,19 @@
         <v>4972</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="7">
         <v>4</v>
@@ -3988,13 +4027,13 @@
         <v>4313</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -4009,7 +4048,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -4018,19 +4057,19 @@
         <v>5253</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="7">
         <v>2</v>
@@ -4045,7 +4084,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -4054,13 +4093,13 @@
         <v>1194</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -4069,19 +4108,19 @@
         <v>3039</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>32</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>211</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11" s="7">
         <v>742</v>
@@ -4090,13 +4129,13 @@
         <v>733290</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H11" s="7">
         <v>888</v>
@@ -4105,13 +4144,13 @@
         <v>990569</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M11" s="7">
         <v>1630</v>
@@ -4120,13 +4159,13 @@
         <v>1723859</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,13 +4180,13 @@
         <v>754347</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H12" s="7">
         <v>892</v>
@@ -4156,13 +4195,13 @@
         <v>994660</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M12" s="7">
         <v>1654</v>
@@ -4171,18 +4210,18 @@
         <v>1749007</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4194,13 +4233,13 @@
         <v>14240</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>209</v>
+        <v>29</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -4209,13 +4248,13 @@
         <v>3103</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>32</v>
+        <v>205</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>189</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -4224,13 +4263,13 @@
         <v>17343</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>189</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4245,13 +4284,13 @@
         <v>7421</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>13</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -4260,13 +4299,13 @@
         <v>3791</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>205</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -4275,13 +4314,13 @@
         <v>11212</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>220</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4299,10 +4338,10 @@
         <v>221</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H15" s="7">
         <v>5</v>
@@ -4314,10 +4353,10 @@
         <v>174</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="M15" s="7">
         <v>46</v>
@@ -4326,19 +4365,19 @@
         <v>47568</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>176</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>223</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="7">
         <v>20</v>
@@ -4350,10 +4389,10 @@
         <v>224</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>94</v>
+        <v>226</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -4362,13 +4401,13 @@
         <v>5131</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>64</v>
+        <v>227</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -4377,19 +4416,19 @@
         <v>26206</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="7">
         <v>63</v>
@@ -4398,13 +4437,13 @@
         <v>66615</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -4413,13 +4452,13 @@
         <v>14111</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="M17" s="7">
         <v>78</v>
@@ -4428,19 +4467,19 @@
         <v>80726</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>231</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" s="7">
         <v>50</v>
@@ -4449,13 +4488,13 @@
         <v>54093</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>233</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>96</v>
+        <v>234</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
@@ -4464,13 +4503,13 @@
         <v>17790</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>171</v>
+        <v>27</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>235</v>
+        <v>68</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="M18" s="7">
         <v>68</v>
@@ -4479,19 +4518,19 @@
         <v>71883</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>185</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="7">
         <v>41</v>
@@ -4500,13 +4539,13 @@
         <v>44310</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -4515,13 +4554,13 @@
         <v>9152</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>240</v>
+        <v>27</v>
       </c>
       <c r="M19" s="7">
         <v>50</v>
@@ -4530,19 +4569,19 @@
         <v>53462</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7">
         <v>1717</v>
@@ -4551,13 +4590,13 @@
         <v>1825863</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H20" s="7">
         <v>1849</v>
@@ -4566,13 +4605,13 @@
         <v>1930422</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M20" s="7">
         <v>3566</v>
@@ -4581,13 +4620,13 @@
         <v>3756285</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,13 +4641,13 @@
         <v>2076385</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
         <v>1908</v>
@@ -4617,13 +4656,13 @@
         <v>1988300</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
         <v>3860</v>
@@ -4632,18 +4671,18 @@
         <v>4064685</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4655,13 +4694,13 @@
         <v>4298</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>66</v>
+        <v>256</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4676,7 +4715,7 @@
         <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -4688,10 +4727,10 @@
         <v>20</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>65</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,7 +4751,7 @@
         <v>14</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -4727,7 +4766,7 @@
         <v>14</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -4742,7 +4781,7 @@
         <v>14</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,13 +4796,13 @@
         <v>14723</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>168</v>
+        <v>259</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -4772,13 +4811,13 @@
         <v>5003</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>256</v>
+        <v>36</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>257</v>
+        <v>98</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -4787,19 +4826,19 @@
         <v>19725</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>259</v>
+        <v>207</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>180</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="7">
         <v>9</v>
@@ -4808,13 +4847,13 @@
         <v>8683</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>231</v>
+        <v>35</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4829,7 +4868,7 @@
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -4838,19 +4877,19 @@
         <v>8683</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>256</v>
+        <v>36</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="7">
         <v>18</v>
@@ -4859,13 +4898,13 @@
         <v>18805</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>87</v>
+        <v>266</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -4874,13 +4913,13 @@
         <v>6948</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>186</v>
+        <v>68</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>140</v>
+        <v>269</v>
       </c>
       <c r="M26" s="7">
         <v>25</v>
@@ -4889,19 +4928,19 @@
         <v>25754</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>266</v>
+        <v>141</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7">
         <v>21</v>
@@ -4910,13 +4949,13 @@
         <v>21945</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>142</v>
+        <v>231</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>89</v>
+        <v>272</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H27" s="7">
         <v>6</v>
@@ -4925,13 +4964,13 @@
         <v>5782</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>43</v>
+        <v>274</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>44</v>
+        <v>166</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>269</v>
+        <v>127</v>
       </c>
       <c r="M27" s="7">
         <v>27</v>
@@ -4940,19 +4979,19 @@
         <v>27727</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>227</v>
+        <v>275</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="7">
         <v>13</v>
@@ -4961,13 +5000,13 @@
         <v>14485</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>223</v>
+        <v>279</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -4976,13 +5015,13 @@
         <v>6918</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>274</v>
+        <v>144</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>275</v>
+        <v>92</v>
       </c>
       <c r="M28" s="7">
         <v>20</v>
@@ -4991,19 +5030,19 @@
         <v>21403</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>277</v>
+        <v>187</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C29" s="7">
         <v>423</v>
@@ -5012,13 +5051,13 @@
         <v>463947</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H29" s="7">
         <v>501</v>
@@ -5027,13 +5066,13 @@
         <v>524488</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="M29" s="7">
         <v>924</v>
@@ -5042,13 +5081,13 @@
         <v>988436</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5063,13 +5102,13 @@
         <v>546886</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H30" s="7">
         <v>526</v>
@@ -5078,13 +5117,13 @@
         <v>549140</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M30" s="7">
         <v>1027</v>
@@ -5093,13 +5132,13 @@
         <v>1096026</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,13 +5155,13 @@
         <v>23552</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>189</v>
+        <v>23</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -5134,7 +5173,7 @@
         <v>16</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>174</v>
@@ -5149,10 +5188,10 @@
         <v>20</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5167,13 +5206,13 @@
         <v>12398</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>164</v>
+        <v>101</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>177</v>
+        <v>58</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -5182,13 +5221,13 @@
         <v>3791</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="M32" s="7">
         <v>15</v>
@@ -5197,13 +5236,13 @@
         <v>16189</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>163</v>
+        <v>96</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,13 +5257,13 @@
         <v>58496</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>79</v>
+        <v>293</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>289</v>
+        <v>151</v>
       </c>
       <c r="H33" s="7">
         <v>10</v>
@@ -5233,13 +5272,13 @@
         <v>9802</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>220</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="M33" s="7">
         <v>66</v>
@@ -5248,19 +5287,19 @@
         <v>68298</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>241</v>
+        <v>294</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" s="7">
         <v>30</v>
@@ -5269,13 +5308,13 @@
         <v>30646</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>291</v>
+        <v>103</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="H34" s="7">
         <v>5</v>
@@ -5287,10 +5326,10 @@
         <v>15</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>32</v>
+        <v>205</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M34" s="7">
         <v>35</v>
@@ -5299,19 +5338,19 @@
         <v>35777</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>175</v>
+        <v>43</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>292</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="7">
         <v>84</v>
@@ -5320,13 +5359,13 @@
         <v>88435</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>91</v>
+        <v>299</v>
       </c>
       <c r="H35" s="7">
         <v>24</v>
@@ -5335,13 +5374,13 @@
         <v>23017</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>114</v>
+        <v>300</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M35" s="7">
         <v>108</v>
@@ -5350,19 +5389,19 @@
         <v>111451</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>295</v>
+        <v>70</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>127</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C36" s="7">
         <v>75</v>
@@ -5371,13 +5410,13 @@
         <v>80352</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>298</v>
+        <v>93</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>145</v>
+        <v>303</v>
       </c>
       <c r="H36" s="7">
         <v>25</v>
@@ -5386,13 +5425,13 @@
         <v>24512</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>209</v>
+        <v>29</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>85</v>
+        <v>244</v>
       </c>
       <c r="M36" s="7">
         <v>100</v>
@@ -5401,19 +5440,19 @@
         <v>104864</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>71</v>
+        <v>295</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>299</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="7">
         <v>56</v>
@@ -5422,13 +5461,13 @@
         <v>60640</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="H37" s="7">
         <v>17</v>
@@ -5437,13 +5476,13 @@
         <v>17265</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>300</v>
+        <v>204</v>
       </c>
       <c r="M37" s="7">
         <v>73</v>
@@ -5452,19 +5491,19 @@
         <v>77904</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>178</v>
+        <v>305</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C38" s="7">
         <v>2882</v>
@@ -5473,13 +5512,13 @@
         <v>3023100</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H38" s="7">
         <v>3238</v>
@@ -5488,13 +5527,13 @@
         <v>3445479</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="M38" s="7">
         <v>6120</v>
@@ -5503,13 +5542,13 @@
         <v>6468580</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>310</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5524,13 +5563,13 @@
         <v>3377618</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H39" s="7">
         <v>3326</v>
@@ -5539,13 +5578,13 @@
         <v>3532100</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M39" s="7">
         <v>6541</v>
@@ -5554,18 +5593,18 @@
         <v>6909718</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -5584,7 +5623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70847CD7-FD77-41F9-A80C-6A15B0B62971}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE23899-C106-451C-9D78-41A6DA232B9F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5601,7 +5640,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5708,13 +5747,13 @@
         <v>2466</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>312</v>
+        <v>121</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5729,7 +5768,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>186</v>
+        <v>68</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -5738,13 +5777,13 @@
         <v>3675</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5759,13 +5798,13 @@
         <v>904</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>300</v>
+        <v>224</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -5774,13 +5813,13 @@
         <v>812</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -5789,13 +5828,13 @@
         <v>1717</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>70</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,7 +5855,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5831,7 +5870,7 @@
         <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -5840,19 +5879,19 @@
         <v>1156</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -5861,13 +5900,13 @@
         <v>657</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>240</v>
+        <v>317</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5876,13 +5915,13 @@
         <v>575</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>207</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -5897,13 +5936,13 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="7">
         <v>7</v>
@@ -5915,10 +5954,10 @@
         <v>224</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -5927,13 +5966,13 @@
         <v>2803</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>240</v>
+        <v>102</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -5942,19 +5981,19 @@
         <v>8250</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -5969,7 +6008,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5984,7 +6023,7 @@
         <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6005,7 +6044,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="7">
         <v>2</v>
@@ -6014,13 +6053,13 @@
         <v>2185</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>168</v>
+        <v>320</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -6035,7 +6074,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -6047,16 +6086,16 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>32</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>60</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11" s="7">
         <v>677</v>
@@ -6065,13 +6104,13 @@
         <v>528818</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="H11" s="7">
         <v>1416</v>
@@ -6080,13 +6119,13 @@
         <v>826469</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="M11" s="7">
         <v>2093</v>
@@ -6095,13 +6134,13 @@
         <v>1355288</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>322</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6116,13 +6155,13 @@
         <v>541634</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H12" s="7">
         <v>1425</v>
@@ -6131,13 +6170,13 @@
         <v>832612</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M12" s="7">
         <v>2116</v>
@@ -6146,18 +6185,18 @@
         <v>1374246</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6169,13 +6208,13 @@
         <v>7197</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -6190,7 +6229,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>17</v>
+        <v>319</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -6202,10 +6241,10 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>36</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,13 +6259,13 @@
         <v>7389</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>167</v>
+        <v>319</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>191</v>
+        <v>329</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -6235,13 +6274,13 @@
         <v>4467</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>205</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -6250,13 +6289,13 @@
         <v>11856</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,13 +6310,13 @@
         <v>65402</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>145</v>
+        <v>330</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="H15" s="7">
         <v>12</v>
@@ -6286,13 +6325,13 @@
         <v>12360</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>203</v>
+        <v>87</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="M15" s="7">
         <v>56</v>
@@ -6301,19 +6340,19 @@
         <v>77762</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>325</v>
+        <v>259</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>149</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="7">
         <v>26</v>
@@ -6322,13 +6361,13 @@
         <v>39479</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>299</v>
+        <v>203</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>326</v>
+        <v>170</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -6337,13 +6376,13 @@
         <v>14453</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>61</v>
+        <v>319</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>290</v>
+        <v>186</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -6352,19 +6391,19 @@
         <v>53932</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>328</v>
+        <v>168</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>335</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="7">
         <v>52</v>
@@ -6373,13 +6412,13 @@
         <v>81918</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -6388,13 +6427,13 @@
         <v>10724</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>332</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
@@ -6403,19 +6442,19 @@
         <v>92642</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>294</v>
+        <v>339</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" s="7">
         <v>41</v>
@@ -6424,13 +6463,13 @@
         <v>59595</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>335</v>
+        <v>98</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
@@ -6439,13 +6478,13 @@
         <v>13297</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>337</v>
+        <v>257</v>
       </c>
       <c r="M18" s="7">
         <v>55</v>
@@ -6454,19 +6493,19 @@
         <v>72892</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>37</v>
+        <v>342</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>150</v>
+        <v>295</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="7">
         <v>23</v>
@@ -6475,13 +6514,13 @@
         <v>35784</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>206</v>
+        <v>343</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>65</v>
+        <v>207</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -6490,13 +6529,13 @@
         <v>4531</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>207</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
@@ -6505,19 +6544,19 @@
         <v>40314</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>339</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7">
         <v>1794</v>
@@ -6526,13 +6565,13 @@
         <v>1864181</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="H20" s="7">
         <v>2855</v>
@@ -6541,13 +6580,13 @@
         <v>2184747</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="M20" s="7">
         <v>4649</v>
@@ -6556,13 +6595,13 @@
         <v>4048927</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6577,13 +6616,13 @@
         <v>2160945</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
         <v>2919</v>
@@ -6592,13 +6631,13 @@
         <v>2246575</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
         <v>4910</v>
@@ -6607,18 +6646,18 @@
         <v>4407520</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6630,13 +6669,13 @@
         <v>8292</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>186</v>
+        <v>95</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -6651,7 +6690,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -6660,13 +6699,13 @@
         <v>9311</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>177</v>
+        <v>82</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6681,13 +6720,13 @@
         <v>5942</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6702,7 +6741,7 @@
         <v>14</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -6711,13 +6750,13 @@
         <v>5942</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>189</v>
+        <v>73</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6732,13 +6771,13 @@
         <v>17713</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>172</v>
+        <v>356</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>254</v>
+        <v>357</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
@@ -6747,13 +6786,13 @@
         <v>9205</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="M24" s="7">
         <v>26</v>
@@ -6762,19 +6801,19 @@
         <v>26918</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>127</v>
+        <v>359</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>274</v>
+        <v>186</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>68</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="7">
         <v>11</v>
@@ -6783,13 +6822,13 @@
         <v>15086</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>185</v>
+        <v>361</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>326</v>
+        <v>41</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -6798,13 +6837,13 @@
         <v>2458</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>256</v>
+        <v>166</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>77</v>
+        <v>363</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -6813,19 +6852,19 @@
         <v>17544</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="7">
         <v>33</v>
@@ -6834,13 +6873,13 @@
         <v>37775</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -6849,13 +6888,13 @@
         <v>4920</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>209</v>
+        <v>29</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>358</v>
+        <v>208</v>
       </c>
       <c r="M26" s="7">
         <v>40</v>
@@ -6864,19 +6903,19 @@
         <v>42695</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>359</v>
+        <v>281</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>360</v>
+        <v>69</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7">
         <v>19</v>
@@ -6885,13 +6924,13 @@
         <v>20634</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>242</v>
+        <v>180</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="H27" s="7">
         <v>13</v>
@@ -6900,13 +6939,13 @@
         <v>12095</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>171</v>
+        <v>34</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="M27" s="7">
         <v>32</v>
@@ -6915,19 +6954,19 @@
         <v>32729</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>271</v>
+        <v>374</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="7">
         <v>12</v>
@@ -6936,13 +6975,13 @@
         <v>17163</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>351</v>
+        <v>272</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>79</v>
+        <v>320</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>367</v>
+        <v>84</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -6951,13 +6990,13 @@
         <v>1322</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="M28" s="7">
         <v>14</v>
@@ -6966,19 +7005,19 @@
         <v>18485</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>368</v>
+        <v>293</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>166</v>
+        <v>219</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C29" s="7">
         <v>580</v>
@@ -6987,13 +7026,13 @@
         <v>550433</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="H29" s="7">
         <v>965</v>
@@ -7002,13 +7041,13 @@
         <v>681311</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="M29" s="7">
         <v>1545</v>
@@ -7017,13 +7056,13 @@
         <v>1231744</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7038,13 +7077,13 @@
         <v>673039</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H30" s="7">
         <v>1003</v>
@@ -7053,13 +7092,13 @@
         <v>712329</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M30" s="7">
         <v>1684</v>
@@ -7068,13 +7107,13 @@
         <v>1385368</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7091,13 +7130,13 @@
         <v>17955</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>176</v>
+        <v>384</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -7106,13 +7145,13 @@
         <v>4224</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="M31" s="7">
         <v>20</v>
@@ -7121,13 +7160,13 @@
         <v>22180</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7142,13 +7181,13 @@
         <v>14235</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>191</v>
+        <v>386</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -7160,10 +7199,10 @@
         <v>220</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M32" s="7">
         <v>15</v>
@@ -7172,13 +7211,13 @@
         <v>19515</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7193,13 +7232,13 @@
         <v>84271</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>335</v>
+        <v>93</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="H33" s="7">
         <v>24</v>
@@ -7208,13 +7247,13 @@
         <v>21565</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>255</v>
+        <v>102</v>
       </c>
       <c r="M33" s="7">
         <v>83</v>
@@ -7223,19 +7262,19 @@
         <v>105836</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>380</v>
+        <v>138</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>298</v>
+        <v>388</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" s="7">
         <v>38</v>
@@ -7244,13 +7283,13 @@
         <v>55223</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>188</v>
+        <v>389</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>297</v>
+        <v>390</v>
       </c>
       <c r="H34" s="7">
         <v>16</v>
@@ -7259,13 +7298,13 @@
         <v>17486</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>165</v>
+        <v>66</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="M34" s="7">
         <v>54</v>
@@ -7277,16 +7316,16 @@
         <v>224</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>133</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="7">
         <v>92</v>
@@ -7295,13 +7334,13 @@
         <v>125141</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>131</v>
+        <v>392</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="H35" s="7">
         <v>27</v>
@@ -7310,13 +7349,13 @@
         <v>18447</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="M35" s="7">
         <v>119</v>
@@ -7325,19 +7364,19 @@
         <v>143587</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>383</v>
+        <v>70</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>89</v>
+        <v>394</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C36" s="7">
         <v>60</v>
@@ -7346,13 +7385,13 @@
         <v>80229</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>384</v>
+        <v>292</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="H36" s="7">
         <v>27</v>
@@ -7361,13 +7400,13 @@
         <v>25391</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>177</v>
+        <v>82</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>224</v>
+        <v>294</v>
       </c>
       <c r="M36" s="7">
         <v>87</v>
@@ -7376,19 +7415,19 @@
         <v>105621</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>139</v>
+        <v>236</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>335</v>
+        <v>396</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="7">
         <v>37</v>
@@ -7397,13 +7436,13 @@
         <v>55132</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>178</v>
+        <v>398</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="H37" s="7">
         <v>8</v>
@@ -7412,10 +7451,10 @@
         <v>6596</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>36</v>
@@ -7427,19 +7466,19 @@
         <v>61728</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>240</v>
+        <v>384</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>78</v>
+        <v>317</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>169</v>
+        <v>399</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C38" s="7">
         <v>3051</v>
@@ -7448,13 +7487,13 @@
         <v>2943432</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="H38" s="7">
         <v>5236</v>
@@ -7463,13 +7502,13 @@
         <v>3692527</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>321</v>
+        <v>109</v>
       </c>
       <c r="M38" s="7">
         <v>8287</v>
@@ -7478,13 +7517,13 @@
         <v>6635959</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7499,13 +7538,13 @@
         <v>3375618</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H39" s="7">
         <v>5347</v>
@@ -7514,13 +7553,13 @@
         <v>3791516</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M39" s="7">
         <v>8710</v>
@@ -7529,18 +7568,18 @@
         <v>7167134</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34B04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34B04-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DDB28C1-84E8-4CD8-AA6F-74EC69CAA296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0615766-8110-49D8-8E89-537F934C58E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9306A1EB-BB2D-4B3C-B820-EB928ED492F7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B7DB18AE-BC0F-4698-8E1E-B7AD7FA03EDA}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="393">
   <si>
     <t>Población según el número de días a la semana que realiza un entrenamiento físico deportivo como fútbol, baloncesto, ciclismo, natación de competición, judo, kárate o similares en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -91,1168 +91,1123 @@
     <t>0,09%</t>
   </si>
   <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>Ningun dia/semana</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de días a la semana que realiza un entrenamiento físico deportivo como fútbol, baloncesto, ciclismo, natación de competición, judo, kárate o similares en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>Población según el número de días a la semana que realiza un entrenamiento físico deportivo como fútbol, baloncesto, ciclismo, natación de competición, judo, kárate o similares en 2023 (Tasa respuesta: 99,87%)</t>
+  </si>
+  <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>Ningun dia/semana</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
   </si>
   <si>
     <t>99,12%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
   </si>
   <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
   </si>
   <si>
     <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de días a la semana que realiza un entrenamiento físico deportivo como fútbol, baloncesto, ciclismo, natación de competición, judo, kárate o similares en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>Población según el número de días a la semana que realiza un entrenamiento físico deportivo como fútbol, baloncesto, ciclismo, natación de competición, judo, kárate o similares en 2023 (Tasa respuesta: 99,87%)</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
   </si>
   <si>
     <t>92,59%</t>
@@ -1673,7 +1628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D2A7BB-22E7-48D9-AD9A-E2C55AF0FEEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B77F5B-2F0D-47C6-871C-E4833A013578}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1902,10 +1857,10 @@
         <v>20</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -1914,13 +1869,13 @@
         <v>1064</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -1932,16 +1887,16 @@
         <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="7">
         <v>3</v>
@@ -1950,13 +1905,13 @@
         <v>2864</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -1965,13 +1920,13 @@
         <v>1719</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -1980,19 +1935,19 @@
         <v>4584</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" s="7">
         <v>8</v>
@@ -2001,13 +1956,13 @@
         <v>8252</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2031,19 +1986,19 @@
         <v>8252</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" s="7">
         <v>4</v>
@@ -2052,13 +2007,13 @@
         <v>3941</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -2067,13 +2022,13 @@
         <v>1015</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -2085,16 +2040,16 @@
         <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="7">
         <v>3</v>
@@ -2103,13 +2058,13 @@
         <v>2814</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2118,13 +2073,13 @@
         <v>2130</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -2136,16 +2091,16 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C11" s="7">
         <v>882</v>
@@ -2154,13 +2109,13 @@
         <v>948844</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H11" s="7">
         <v>1242</v>
@@ -2169,13 +2124,13 @@
         <v>1331868</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M11" s="7">
         <v>2124</v>
@@ -2184,13 +2139,13 @@
         <v>2280713</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2205,13 +2160,13 @@
         <v>972575</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H12" s="7">
         <v>1247</v>
@@ -2220,13 +2175,13 @@
         <v>1337796</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M12" s="7">
         <v>2153</v>
@@ -2235,18 +2190,18 @@
         <v>2310372</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2258,13 +2213,13 @@
         <v>12357</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2279,7 +2234,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -2288,13 +2243,13 @@
         <v>12357</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2309,13 +2264,13 @@
         <v>11232</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2330,7 +2285,7 @@
         <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -2339,13 +2294,13 @@
         <v>11232</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2360,13 +2315,13 @@
         <v>43400</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -2375,13 +2330,13 @@
         <v>2898</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M15" s="7">
         <v>44</v>
@@ -2390,19 +2345,19 @@
         <v>46298</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7">
         <v>32</v>
@@ -2411,13 +2366,13 @@
         <v>33049</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2426,13 +2381,13 @@
         <v>1962</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -2441,19 +2396,19 @@
         <v>35011</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="7">
         <v>84</v>
@@ -2462,13 +2417,13 @@
         <v>86074</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -2477,13 +2432,13 @@
         <v>9834</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M17" s="7">
         <v>94</v>
@@ -2492,19 +2447,19 @@
         <v>95908</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C18" s="7">
         <v>48</v>
@@ -2513,13 +2468,13 @@
         <v>49006</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -2528,13 +2483,13 @@
         <v>9007</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="M18" s="7">
         <v>57</v>
@@ -2543,19 +2498,19 @@
         <v>58013</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="7">
         <v>31</v>
@@ -2564,13 +2519,13 @@
         <v>30502</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -2579,13 +2534,13 @@
         <v>2153</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M19" s="7">
         <v>33</v>
@@ -2594,19 +2549,19 @@
         <v>32655</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>1598</v>
@@ -2615,13 +2570,13 @@
         <v>1698338</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H20" s="7">
         <v>1608</v>
@@ -2630,13 +2585,13 @@
         <v>1730055</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>3206</v>
@@ -2645,13 +2600,13 @@
         <v>3428393</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2666,13 +2621,13 @@
         <v>1963957</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>1634</v>
@@ -2681,13 +2636,13 @@
         <v>1755909</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>3490</v>
@@ -2696,18 +2651,18 @@
         <v>3719866</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2719,13 +2674,13 @@
         <v>1851</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2740,7 +2695,7 @@
         <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -2749,13 +2704,13 @@
         <v>1851</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2770,13 +2725,13 @@
         <v>2898</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -2791,7 +2746,7 @@
         <v>14</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -2800,13 +2755,13 @@
         <v>2898</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2821,13 +2776,13 @@
         <v>7372</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -2842,7 +2797,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
@@ -2851,19 +2806,19 @@
         <v>10827</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" s="7">
         <v>17</v>
@@ -2872,13 +2827,13 @@
         <v>15958</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2887,13 +2842,13 @@
         <v>4898</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -2902,19 +2857,19 @@
         <v>20856</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" s="7">
         <v>20</v>
@@ -2923,13 +2878,13 @@
         <v>22813</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2938,13 +2893,13 @@
         <v>1928</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M26" s="7">
         <v>22</v>
@@ -2953,19 +2908,19 @@
         <v>24741</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C27" s="7">
         <v>7</v>
@@ -2974,13 +2929,13 @@
         <v>7241</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="H27" s="7">
         <v>2</v>
@@ -2989,13 +2944,13 @@
         <v>1855</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M27" s="7">
         <v>9</v>
@@ -3004,19 +2959,19 @@
         <v>9096</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28" s="7">
         <v>7</v>
@@ -3025,13 +2980,13 @@
         <v>8208</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -3040,13 +2995,13 @@
         <v>2744</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -3055,19 +3010,19 @@
         <v>10951</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C29" s="7">
         <v>374</v>
@@ -3127,13 +3082,13 @@
         <v>481181</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H30" s="7">
         <v>412</v>
@@ -3142,13 +3097,13 @@
         <v>458631</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M30" s="7">
         <v>850</v>
@@ -3157,13 +3112,13 @@
         <v>939812</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3183,7 +3138,7 @@
         <v>161</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>162</v>
@@ -3210,13 +3165,13 @@
         <v>16249</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,13 +3186,13 @@
         <v>14130</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3261,13 +3216,13 @@
         <v>14130</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>166</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3282,13 +3237,13 @@
         <v>54588</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H33" s="7">
         <v>6</v>
@@ -3300,10 +3255,10 @@
         <v>11</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="M33" s="7">
         <v>59</v>
@@ -3312,19 +3267,19 @@
         <v>62006</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C34" s="7">
         <v>52</v>
@@ -3333,13 +3288,13 @@
         <v>51871</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H34" s="7">
         <v>7</v>
@@ -3348,13 +3303,13 @@
         <v>8579</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="M34" s="7">
         <v>59</v>
@@ -3363,19 +3318,19 @@
         <v>60451</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C35" s="7">
         <v>112</v>
@@ -3384,13 +3339,13 @@
         <v>117139</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H35" s="7">
         <v>12</v>
@@ -3399,13 +3354,13 @@
         <v>11762</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="M35" s="7">
         <v>124</v>
@@ -3414,19 +3369,19 @@
         <v>128901</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>100</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C36" s="7">
         <v>59</v>
@@ -3435,13 +3390,13 @@
         <v>60188</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="H36" s="7">
         <v>12</v>
@@ -3450,13 +3405,13 @@
         <v>11876</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="M36" s="7">
         <v>71</v>
@@ -3465,19 +3420,19 @@
         <v>72065</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C37" s="7">
         <v>41</v>
@@ -3486,13 +3441,13 @@
         <v>41524</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H37" s="7">
         <v>6</v>
@@ -3501,13 +3456,13 @@
         <v>7027</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="M37" s="7">
         <v>47</v>
@@ -3516,19 +3471,19 @@
         <v>48551</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>21</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>2854</v>
@@ -3537,13 +3492,13 @@
         <v>3062024</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H38" s="7">
         <v>3250</v>
@@ -3552,13 +3507,13 @@
         <v>3505673</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M38" s="7">
         <v>6104</v>
@@ -3567,13 +3522,13 @@
         <v>6567697</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,13 +3543,13 @@
         <v>3417714</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>3293</v>
@@ -3603,13 +3558,13 @@
         <v>3552336</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>6493</v>
@@ -3618,18 +3573,18 @@
         <v>6970050</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -3648,7 +3603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1824CBD-63BF-4CBA-B4D6-2FF4C97C791F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7B490A-525D-44D2-9585-3E95607D2FCC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3665,7 +3620,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3772,13 +3727,13 @@
         <v>5015</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3793,7 +3748,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -3802,13 +3757,13 @@
         <v>5015</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3823,13 +3778,13 @@
         <v>4977</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>72</v>
+        <v>203</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>203</v>
+        <v>78</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3844,7 +3799,7 @@
         <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -3853,13 +3808,13 @@
         <v>4977</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,13 +3829,13 @@
         <v>1004</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3895,7 +3850,7 @@
         <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -3910,13 +3865,13 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -3925,13 +3880,13 @@
         <v>888</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3946,7 +3901,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -3955,19 +3910,19 @@
         <v>888</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>205</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -3976,13 +3931,13 @@
         <v>3014</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>207</v>
+        <v>102</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -3991,13 +3946,13 @@
         <v>1958</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -4006,19 +3961,19 @@
         <v>4972</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" s="7">
         <v>4</v>
@@ -4027,13 +3982,13 @@
         <v>4313</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -4048,7 +4003,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -4057,19 +4012,19 @@
         <v>5253</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="7">
         <v>2</v>
@@ -4078,13 +4033,13 @@
         <v>1845</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -4093,13 +4048,13 @@
         <v>1194</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -4108,19 +4063,19 @@
         <v>3039</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C11" s="7">
         <v>742</v>
@@ -4129,13 +4084,13 @@
         <v>733290</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>888</v>
@@ -4144,13 +4099,13 @@
         <v>990569</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>1630</v>
@@ -4159,13 +4114,13 @@
         <v>1723859</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,13 +4135,13 @@
         <v>754347</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H12" s="7">
         <v>892</v>
@@ -4195,13 +4150,13 @@
         <v>994660</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M12" s="7">
         <v>1654</v>
@@ -4210,18 +4165,18 @@
         <v>1749007</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4233,13 +4188,13 @@
         <v>14240</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -4248,13 +4203,13 @@
         <v>3103</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>205</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -4263,13 +4218,13 @@
         <v>17343</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>38</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,13 +4239,13 @@
         <v>7421</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -4299,13 +4254,13 @@
         <v>3791</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>23</v>
+        <v>216</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -4314,13 +4269,13 @@
         <v>11212</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,13 +4290,13 @@
         <v>42768</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H15" s="7">
         <v>5</v>
@@ -4350,13 +4305,13 @@
         <v>4800</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="M15" s="7">
         <v>46</v>
@@ -4365,19 +4320,19 @@
         <v>47568</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7">
         <v>20</v>
@@ -4386,13 +4341,13 @@
         <v>21075</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>225</v>
+        <v>30</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>226</v>
+        <v>101</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -4401,13 +4356,13 @@
         <v>5131</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>227</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -4416,19 +4371,19 @@
         <v>26206</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>225</v>
+        <v>30</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>137</v>
+        <v>216</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>228</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="7">
         <v>63</v>
@@ -4437,13 +4392,13 @@
         <v>66615</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -4452,13 +4407,13 @@
         <v>14111</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M17" s="7">
         <v>78</v>
@@ -4467,19 +4422,19 @@
         <v>80726</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C18" s="7">
         <v>50</v>
@@ -4488,13 +4443,13 @@
         <v>54093</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>231</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
@@ -4503,13 +4458,13 @@
         <v>17790</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M18" s="7">
         <v>68</v>
@@ -4518,19 +4473,19 @@
         <v>71883</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="7">
         <v>41</v>
@@ -4539,13 +4494,13 @@
         <v>44310</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>241</v>
+        <v>73</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>242</v>
+        <v>139</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -4554,13 +4509,13 @@
         <v>9152</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M19" s="7">
         <v>50</v>
@@ -4569,19 +4524,19 @@
         <v>53462</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>1717</v>
@@ -4590,13 +4545,13 @@
         <v>1825863</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H20" s="7">
         <v>1849</v>
@@ -4605,13 +4560,13 @@
         <v>1930422</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="M20" s="7">
         <v>3566</v>
@@ -4620,13 +4575,13 @@
         <v>3756285</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,13 +4596,13 @@
         <v>2076385</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>1908</v>
@@ -4656,13 +4611,13 @@
         <v>1988300</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>3860</v>
@@ -4671,18 +4626,18 @@
         <v>4064685</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4694,13 +4649,13 @@
         <v>4298</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4715,7 +4670,7 @@
         <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -4727,10 +4682,10 @@
         <v>20</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4751,7 +4706,7 @@
         <v>14</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -4766,7 +4721,7 @@
         <v>14</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -4781,7 +4736,7 @@
         <v>14</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,13 +4751,13 @@
         <v>14723</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>259</v>
+        <v>101</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -4811,13 +4766,13 @@
         <v>5003</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>261</v>
+        <v>184</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>98</v>
+        <v>229</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -4826,19 +4781,19 @@
         <v>19725</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" s="7">
         <v>9</v>
@@ -4847,13 +4802,13 @@
         <v>8683</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>35</v>
+        <v>257</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4868,7 +4823,7 @@
         <v>14</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -4877,19 +4832,19 @@
         <v>8683</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" s="7">
         <v>18</v>
@@ -4898,13 +4853,13 @@
         <v>18805</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -4913,13 +4868,13 @@
         <v>6948</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>268</v>
+        <v>85</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="M26" s="7">
         <v>25</v>
@@ -4928,19 +4883,19 @@
         <v>25754</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C27" s="7">
         <v>21</v>
@@ -4949,13 +4904,13 @@
         <v>21945</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="H27" s="7">
         <v>6</v>
@@ -4964,13 +4919,13 @@
         <v>5782</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>166</v>
+        <v>44</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="M27" s="7">
         <v>27</v>
@@ -4979,19 +4934,19 @@
         <v>27727</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28" s="7">
         <v>13</v>
@@ -5000,13 +4955,13 @@
         <v>14485</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>279</v>
+        <v>141</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>280</v>
+        <v>86</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -5015,13 +4970,13 @@
         <v>6918</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>144</v>
+        <v>271</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>150</v>
+        <v>221</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>92</v>
+        <v>272</v>
       </c>
       <c r="M28" s="7">
         <v>20</v>
@@ -5030,19 +4985,19 @@
         <v>21403</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>234</v>
+        <v>131</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>187</v>
+        <v>85</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C29" s="7">
         <v>423</v>
@@ -5051,13 +5006,13 @@
         <v>463947</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="H29" s="7">
         <v>501</v>
@@ -5066,13 +5021,13 @@
         <v>524488</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="M29" s="7">
         <v>924</v>
@@ -5081,13 +5036,13 @@
         <v>988436</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5102,13 +5057,13 @@
         <v>546886</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H30" s="7">
         <v>526</v>
@@ -5117,13 +5072,13 @@
         <v>549140</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M30" s="7">
         <v>1027</v>
@@ -5132,13 +5087,13 @@
         <v>1096026</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5155,13 +5110,13 @@
         <v>23552</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>67</v>
+        <v>255</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -5173,10 +5128,10 @@
         <v>16</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="M31" s="7">
         <v>24</v>
@@ -5188,10 +5143,10 @@
         <v>20</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,13 +5161,13 @@
         <v>12398</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>101</v>
+        <v>285</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -5221,13 +5176,13 @@
         <v>3791</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>66</v>
+        <v>224</v>
       </c>
       <c r="M32" s="7">
         <v>15</v>
@@ -5236,13 +5191,13 @@
         <v>16189</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>28</v>
+        <v>286</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,13 +5212,13 @@
         <v>58496</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>292</v>
+        <v>239</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>151</v>
+        <v>288</v>
       </c>
       <c r="H33" s="7">
         <v>10</v>
@@ -5272,13 +5227,13 @@
         <v>9802</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="M33" s="7">
         <v>66</v>
@@ -5287,19 +5242,19 @@
         <v>68298</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>294</v>
+        <v>238</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C34" s="7">
         <v>30</v>
@@ -5308,13 +5263,13 @@
         <v>30646</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>261</v>
+        <v>184</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>296</v>
+        <v>206</v>
       </c>
       <c r="H34" s="7">
         <v>5</v>
@@ -5326,10 +5281,10 @@
         <v>15</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="M34" s="7">
         <v>35</v>
@@ -5338,19 +5293,19 @@
         <v>35777</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>43</v>
+        <v>290</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>124</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C35" s="7">
         <v>84</v>
@@ -5359,13 +5314,13 @@
         <v>88435</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>298</v>
+        <v>219</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="H35" s="7">
         <v>24</v>
@@ -5374,13 +5329,13 @@
         <v>23017</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>300</v>
+        <v>84</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="M35" s="7">
         <v>108</v>
@@ -5389,19 +5344,19 @@
         <v>111451</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>70</v>
+        <v>293</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>293</v>
+        <v>180</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C36" s="7">
         <v>75</v>
@@ -5410,13 +5365,13 @@
         <v>80352</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>93</v>
+        <v>177</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="H36" s="7">
         <v>25</v>
@@ -5425,13 +5380,13 @@
         <v>24512</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>244</v>
+        <v>181</v>
       </c>
       <c r="M36" s="7">
         <v>100</v>
@@ -5440,19 +5395,19 @@
         <v>104864</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>295</v>
+        <v>106</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>203</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C37" s="7">
         <v>56</v>
@@ -5461,13 +5416,13 @@
         <v>60640</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="H37" s="7">
         <v>17</v>
@@ -5476,13 +5431,13 @@
         <v>17265</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="M37" s="7">
         <v>73</v>
@@ -5491,19 +5446,19 @@
         <v>77904</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>305</v>
+        <v>173</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>2882</v>
@@ -5512,13 +5467,13 @@
         <v>3023100</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="H38" s="7">
         <v>3238</v>
@@ -5527,13 +5482,13 @@
         <v>3445479</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="M38" s="7">
         <v>6120</v>
@@ -5542,13 +5497,13 @@
         <v>6468580</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>314</v>
+        <v>115</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>196</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,13 +5518,13 @@
         <v>3377618</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>3326</v>
@@ -5578,13 +5533,13 @@
         <v>3532100</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>6541</v>
@@ -5593,18 +5548,18 @@
         <v>6909718</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -5623,7 +5578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE23899-C106-451C-9D78-41A6DA232B9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0165A0D1-2D09-4E0F-ACFC-E1433D75AB7D}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5640,7 +5595,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5747,13 +5702,13 @@
         <v>2466</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5768,7 +5723,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -5777,10 +5732,10 @@
         <v>3675</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -5798,13 +5753,13 @@
         <v>904</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -5813,13 +5768,13 @@
         <v>812</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -5828,13 +5783,13 @@
         <v>1717</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>316</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,7 +5810,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>104</v>
+        <v>251</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5870,7 +5825,7 @@
         <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -5879,19 +5834,19 @@
         <v>1156</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -5900,13 +5855,13 @@
         <v>657</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>317</v>
+        <v>48</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5915,13 +5870,13 @@
         <v>575</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>17</v>
+        <v>309</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -5936,13 +5891,13 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>17</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" s="7">
         <v>7</v>
@@ -5951,13 +5906,13 @@
         <v>5447</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -5966,13 +5921,13 @@
         <v>2803</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>319</v>
+        <v>36</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -5981,19 +5936,19 @@
         <v>8250</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -6008,7 +5963,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6023,7 +5978,7 @@
         <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -6044,7 +5999,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="7">
         <v>2</v>
@@ -6053,13 +6008,13 @@
         <v>2185</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -6074,7 +6029,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>82</v>
+        <v>217</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -6086,16 +6041,16 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>227</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C11" s="7">
         <v>677</v>
@@ -6104,13 +6059,13 @@
         <v>528818</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>322</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="H11" s="7">
         <v>1416</v>
@@ -6119,13 +6074,13 @@
         <v>826469</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="M11" s="7">
         <v>2093</v>
@@ -6134,13 +6089,13 @@
         <v>1355288</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>55</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6155,13 +6110,13 @@
         <v>541634</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H12" s="7">
         <v>1425</v>
@@ -6170,13 +6125,13 @@
         <v>832612</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M12" s="7">
         <v>2116</v>
@@ -6185,18 +6140,18 @@
         <v>1374246</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6208,10 +6163,10 @@
         <v>7197</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>124</v>
@@ -6229,7 +6184,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>319</v>
+        <v>36</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -6244,7 +6199,7 @@
         <v>16</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>316</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,13 +6214,13 @@
         <v>7389</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>319</v>
+        <v>36</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -6274,13 +6229,13 @@
         <v>4467</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>205</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -6289,13 +6244,13 @@
         <v>11856</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6310,13 +6265,13 @@
         <v>65402</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>331</v>
+        <v>166</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="H15" s="7">
         <v>12</v>
@@ -6325,13 +6280,13 @@
         <v>12360</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M15" s="7">
         <v>56</v>
@@ -6340,19 +6295,19 @@
         <v>77762</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>259</v>
+        <v>117</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="7">
         <v>26</v>
@@ -6361,13 +6316,13 @@
         <v>39479</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>203</v>
+        <v>324</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -6376,13 +6331,13 @@
         <v>14453</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>225</v>
+        <v>30</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>319</v>
+        <v>36</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -6391,19 +6346,19 @@
         <v>53932</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>168</v>
+        <v>289</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>276</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="7">
         <v>52</v>
@@ -6412,13 +6367,13 @@
         <v>81918</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -6430,10 +6385,10 @@
         <v>161</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
@@ -6442,19 +6397,19 @@
         <v>92642</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>339</v>
+        <v>129</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C18" s="7">
         <v>41</v>
@@ -6463,13 +6418,13 @@
         <v>59595</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
@@ -6478,13 +6433,13 @@
         <v>13297</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>17</v>
+        <v>309</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>257</v>
+        <v>333</v>
       </c>
       <c r="M18" s="7">
         <v>55</v>
@@ -6493,19 +6448,19 @@
         <v>72892</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>342</v>
+        <v>269</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>295</v>
+        <v>106</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="7">
         <v>23</v>
@@ -6514,13 +6469,13 @@
         <v>35784</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>207</v>
+        <v>69</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>344</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -6529,13 +6484,13 @@
         <v>4531</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
@@ -6544,19 +6499,19 @@
         <v>40314</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>261</v>
+        <v>184</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>1794</v>
@@ -6565,13 +6520,13 @@
         <v>1864181</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="H20" s="7">
         <v>2855</v>
@@ -6580,13 +6535,13 @@
         <v>2184747</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="M20" s="7">
         <v>4649</v>
@@ -6595,13 +6550,13 @@
         <v>4048927</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>352</v>
+        <v>190</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>353</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6616,13 +6571,13 @@
         <v>2160945</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>2919</v>
@@ -6631,13 +6586,13 @@
         <v>2246575</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>4910</v>
@@ -6646,18 +6601,18 @@
         <v>4407520</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6669,13 +6624,13 @@
         <v>8292</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>295</v>
+        <v>106</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -6684,13 +6639,13 @@
         <v>1019</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -6699,13 +6654,13 @@
         <v>9311</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>82</v>
+        <v>217</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6720,13 +6675,13 @@
         <v>5942</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>355</v>
+        <v>250</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6741,7 +6696,7 @@
         <v>14</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -6750,13 +6705,13 @@
         <v>5942</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6771,13 +6726,13 @@
         <v>17713</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
@@ -6786,13 +6741,13 @@
         <v>9205</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="M24" s="7">
         <v>26</v>
@@ -6801,19 +6756,19 @@
         <v>26918</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>359</v>
+        <v>232</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" s="7">
         <v>11</v>
@@ -6822,13 +6777,13 @@
         <v>15086</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>361</v>
+        <v>236</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>41</v>
+        <v>255</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -6837,13 +6792,13 @@
         <v>2458</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>166</v>
+        <v>348</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -6852,19 +6807,19 @@
         <v>17544</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>268</v>
+        <v>85</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C26" s="7">
         <v>33</v>
@@ -6873,13 +6828,13 @@
         <v>37775</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>366</v>
+        <v>144</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -6888,13 +6843,13 @@
         <v>4920</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>208</v>
+        <v>353</v>
       </c>
       <c r="M26" s="7">
         <v>40</v>
@@ -6903,19 +6858,19 @@
         <v>42695</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>281</v>
+        <v>125</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C27" s="7">
         <v>19</v>
@@ -6924,13 +6879,13 @@
         <v>20634</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="H27" s="7">
         <v>13</v>
@@ -6939,13 +6894,13 @@
         <v>12095</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>371</v>
+        <v>143</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="M27" s="7">
         <v>32</v>
@@ -6954,19 +6909,19 @@
         <v>32729</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>115</v>
+        <v>359</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28" s="7">
         <v>12</v>
@@ -6975,13 +6930,13 @@
         <v>17163</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>272</v>
+        <v>361</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -6990,7 +6945,7 @@
         <v>1322</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>12</v>
@@ -7005,19 +6960,19 @@
         <v>18485</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>293</v>
+        <v>182</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>219</v>
+        <v>46</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C29" s="7">
         <v>580</v>
@@ -7026,13 +6981,13 @@
         <v>550433</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="H29" s="7">
         <v>965</v>
@@ -7041,13 +6996,13 @@
         <v>681311</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="M29" s="7">
         <v>1545</v>
@@ -7056,13 +7011,13 @@
         <v>1231744</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7077,13 +7032,13 @@
         <v>673039</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H30" s="7">
         <v>1003</v>
@@ -7092,13 +7047,13 @@
         <v>712329</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M30" s="7">
         <v>1684</v>
@@ -7107,13 +7062,13 @@
         <v>1385368</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7130,13 +7085,13 @@
         <v>17955</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>150</v>
+        <v>221</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>384</v>
+        <v>28</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -7145,13 +7100,13 @@
         <v>4224</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>385</v>
+        <v>218</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="M31" s="7">
         <v>20</v>
@@ -7160,13 +7115,13 @@
         <v>22180</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>175</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7181,13 +7136,13 @@
         <v>14235</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>386</v>
+        <v>122</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -7196,13 +7151,13 @@
         <v>5280</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>385</v>
+        <v>218</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M32" s="7">
         <v>15</v>
@@ -7211,13 +7166,13 @@
         <v>19515</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7232,13 +7187,13 @@
         <v>84271</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>93</v>
+        <v>371</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="H33" s="7">
         <v>24</v>
@@ -7247,13 +7202,13 @@
         <v>21565</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>166</v>
+        <v>348</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M33" s="7">
         <v>83</v>
@@ -7262,19 +7217,19 @@
         <v>105836</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>172</v>
+        <v>373</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C34" s="7">
         <v>38</v>
@@ -7283,13 +7238,13 @@
         <v>55223</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>389</v>
+        <v>185</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="H34" s="7">
         <v>16</v>
@@ -7298,13 +7253,13 @@
         <v>17486</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="M34" s="7">
         <v>54</v>
@@ -7313,19 +7268,19 @@
         <v>72709</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>165</v>
+        <v>40</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>208</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C35" s="7">
         <v>92</v>
@@ -7334,13 +7289,13 @@
         <v>125141</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="H35" s="7">
         <v>27</v>
@@ -7349,10 +7304,10 @@
         <v>18447</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>17</v>
+        <v>309</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>124</v>
@@ -7364,19 +7319,19 @@
         <v>143587</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>70</v>
+        <v>293</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>394</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C36" s="7">
         <v>60</v>
@@ -7385,13 +7340,13 @@
         <v>80229</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>292</v>
+        <v>239</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="H36" s="7">
         <v>27</v>
@@ -7400,13 +7355,13 @@
         <v>25391</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>82</v>
+        <v>217</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>294</v>
+        <v>238</v>
       </c>
       <c r="M36" s="7">
         <v>87</v>
@@ -7415,19 +7370,19 @@
         <v>105621</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>236</v>
+        <v>380</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C37" s="7">
         <v>37</v>
@@ -7436,13 +7391,13 @@
         <v>55132</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="H37" s="7">
         <v>8</v>
@@ -7451,13 +7406,13 @@
         <v>6596</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M37" s="7">
         <v>45</v>
@@ -7466,19 +7421,19 @@
         <v>61728</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>384</v>
+        <v>28</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>317</v>
+        <v>48</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>399</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>3051</v>
@@ -7487,13 +7442,13 @@
         <v>2943432</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="H38" s="7">
         <v>5236</v>
@@ -7502,13 +7457,13 @@
         <v>3692527</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>109</v>
+        <v>389</v>
       </c>
       <c r="M38" s="7">
         <v>8287</v>
@@ -7517,13 +7472,13 @@
         <v>6635959</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7538,13 +7493,13 @@
         <v>3375618</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>5347</v>
@@ -7553,13 +7508,13 @@
         <v>3791516</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>8710</v>
@@ -7568,18 +7523,18 @@
         <v>7167134</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34B04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34B04-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0615766-8110-49D8-8E89-537F934C58E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48C919B0-5501-433D-8CBE-B7E975CA0EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B7DB18AE-BC0F-4698-8E1E-B7AD7FA03EDA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6E537CB4-B13B-4EB6-9A7B-27BF9034F1CE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="395">
   <si>
     <t>Población según el número de días a la semana que realiza un entrenamiento físico deportivo como fútbol, baloncesto, ciclismo, natación de competición, judo, kárate o similares en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -91,1132 +91,1138 @@
     <t>0,09%</t>
   </si>
   <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>Ningun dia/semana</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>0,29%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de días a la semana que realiza un entrenamiento físico deportivo como fútbol, baloncesto, ciclismo, natación de competición, judo, kárate o similares en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
   </si>
   <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>Ningun dia/semana</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>Población según el número de días a la semana que realiza un entrenamiento físico deportivo como fútbol, baloncesto, ciclismo, natación de competición, judo, kárate o similares en 2023 (Tasa respuesta: 99,87%)</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
   </si>
   <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
   </si>
   <si>
     <t>3,34%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de días a la semana que realiza un entrenamiento físico deportivo como fútbol, baloncesto, ciclismo, natación de competición, judo, kárate o similares en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>Población según el número de días a la semana que realiza un entrenamiento físico deportivo como fútbol, baloncesto, ciclismo, natación de competición, judo, kárate o similares en 2023 (Tasa respuesta: 99,87%)</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
     <t>87,2%</t>
   </si>
   <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
   </si>
   <si>
     <t>97,39%</t>
   </si>
   <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
+    <t>96,72%</t>
   </si>
   <si>
     <t>92,59%</t>
   </si>
   <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
   </si>
 </sst>
 </file>
@@ -1628,7 +1634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B77F5B-2F0D-47C6-871C-E4833A013578}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F798D8-0807-4C85-8AF5-DC283BC65A99}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2007,13 +2013,13 @@
         <v>3941</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -2028,7 +2034,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -2073,13 +2079,13 @@
         <v>2130</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -2094,13 +2100,13 @@
         <v>23</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="7">
         <v>882</v>
@@ -2109,13 +2115,13 @@
         <v>948844</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H11" s="7">
         <v>1242</v>
@@ -2124,13 +2130,13 @@
         <v>1331868</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M11" s="7">
         <v>2124</v>
@@ -2139,13 +2145,13 @@
         <v>2280713</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2160,13 +2166,13 @@
         <v>972575</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H12" s="7">
         <v>1247</v>
@@ -2175,13 +2181,13 @@
         <v>1337796</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M12" s="7">
         <v>2153</v>
@@ -2190,18 +2196,18 @@
         <v>2310372</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2213,13 +2219,13 @@
         <v>12357</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2234,7 +2240,7 @@
         <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -2243,13 +2249,13 @@
         <v>12357</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>39</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2264,13 +2270,13 @@
         <v>11232</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2285,7 +2291,7 @@
         <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -2294,13 +2300,13 @@
         <v>11232</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2315,13 +2321,13 @@
         <v>43400</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -2330,13 +2336,13 @@
         <v>2898</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M15" s="7">
         <v>44</v>
@@ -2345,13 +2351,13 @@
         <v>46298</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2366,13 +2372,13 @@
         <v>33049</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2381,13 +2387,13 @@
         <v>1962</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="M16" s="7">
         <v>34</v>
@@ -2396,13 +2402,13 @@
         <v>35011</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2417,13 +2423,13 @@
         <v>86074</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -2432,13 +2438,13 @@
         <v>9834</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>94</v>
@@ -2447,13 +2453,13 @@
         <v>95908</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2468,13 +2474,13 @@
         <v>49006</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -2483,13 +2489,13 @@
         <v>9007</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="M18" s="7">
         <v>57</v>
@@ -2498,13 +2504,13 @@
         <v>58013</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2519,13 +2525,13 @@
         <v>30502</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -2534,13 +2540,13 @@
         <v>2153</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M19" s="7">
         <v>33</v>
@@ -2549,19 +2555,19 @@
         <v>32655</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>1598</v>
@@ -2570,13 +2576,13 @@
         <v>1698338</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H20" s="7">
         <v>1608</v>
@@ -2585,13 +2591,13 @@
         <v>1730055</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M20" s="7">
         <v>3206</v>
@@ -2600,13 +2606,13 @@
         <v>3428393</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,13 +2627,13 @@
         <v>1963957</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>1634</v>
@@ -2636,13 +2642,13 @@
         <v>1755909</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>3490</v>
@@ -2651,18 +2657,18 @@
         <v>3719866</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2674,13 +2680,13 @@
         <v>1851</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2695,7 +2701,7 @@
         <v>14</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -2710,7 +2716,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2725,13 +2731,13 @@
         <v>2898</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -2746,7 +2752,7 @@
         <v>14</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -2755,13 +2761,13 @@
         <v>2898</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2776,13 +2782,13 @@
         <v>7372</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -2791,13 +2797,13 @@
         <v>3456</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
@@ -2806,13 +2812,13 @@
         <v>10827</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,13 +2833,13 @@
         <v>15958</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -2842,13 +2848,13 @@
         <v>4898</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -2857,13 +2863,13 @@
         <v>20856</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,13 +2884,13 @@
         <v>22813</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2893,13 +2899,13 @@
         <v>1928</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M26" s="7">
         <v>22</v>
@@ -2908,13 +2914,13 @@
         <v>24741</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,13 +2935,13 @@
         <v>7241</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H27" s="7">
         <v>2</v>
@@ -2944,13 +2950,13 @@
         <v>1855</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M27" s="7">
         <v>9</v>
@@ -2959,10 +2965,10 @@
         <v>9096</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>148</v>
@@ -2980,13 +2986,13 @@
         <v>8208</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -2995,13 +3001,13 @@
         <v>2744</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -3010,19 +3016,19 @@
         <v>10951</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P28" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="Q28" s="7" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7">
         <v>374</v>
@@ -3031,13 +3037,13 @@
         <v>414841</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H29" s="7">
         <v>400</v>
@@ -3046,13 +3052,13 @@
         <v>443751</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M29" s="7">
         <v>774</v>
@@ -3061,13 +3067,13 @@
         <v>858591</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,13 +3088,13 @@
         <v>481181</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H30" s="7">
         <v>412</v>
@@ -3097,13 +3103,13 @@
         <v>458631</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M30" s="7">
         <v>850</v>
@@ -3112,13 +3118,13 @@
         <v>939812</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3135,13 +3141,13 @@
         <v>16249</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3156,7 +3162,7 @@
         <v>14</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M31" s="7">
         <v>16</v>
@@ -3165,13 +3171,13 @@
         <v>16249</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3186,13 +3192,13 @@
         <v>14130</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3207,7 +3213,7 @@
         <v>14</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M32" s="7">
         <v>13</v>
@@ -3219,10 +3225,10 @@
         <v>31</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>36</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,13 +3243,13 @@
         <v>54588</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H33" s="7">
         <v>6</v>
@@ -3258,7 +3264,7 @@
         <v>23</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="M33" s="7">
         <v>59</v>
@@ -3267,13 +3273,13 @@
         <v>62006</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,13 +3294,13 @@
         <v>51871</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H34" s="7">
         <v>7</v>
@@ -3303,13 +3309,13 @@
         <v>8579</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="M34" s="7">
         <v>59</v>
@@ -3318,13 +3324,13 @@
         <v>60451</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3339,13 +3345,13 @@
         <v>117139</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="H35" s="7">
         <v>12</v>
@@ -3354,13 +3360,13 @@
         <v>11762</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="M35" s="7">
         <v>124</v>
@@ -3369,13 +3375,13 @@
         <v>128901</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>178</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3390,13 +3396,13 @@
         <v>60188</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="H36" s="7">
         <v>12</v>
@@ -3405,13 +3411,13 @@
         <v>11876</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>71</v>
+        <v>186</v>
       </c>
       <c r="M36" s="7">
         <v>71</v>
@@ -3420,13 +3426,13 @@
         <v>72065</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3441,13 +3447,13 @@
         <v>41524</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H37" s="7">
         <v>6</v>
@@ -3462,7 +3468,7 @@
         <v>23</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>24</v>
+        <v>189</v>
       </c>
       <c r="M37" s="7">
         <v>47</v>
@@ -3471,19 +3477,19 @@
         <v>48551</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>75</v>
+        <v>175</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C38" s="7">
         <v>2854</v>
@@ -3492,13 +3498,13 @@
         <v>3062024</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H38" s="7">
         <v>3250</v>
@@ -3507,13 +3513,13 @@
         <v>3505673</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M38" s="7">
         <v>6104</v>
@@ -3522,13 +3528,13 @@
         <v>6567697</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3543,13 +3549,13 @@
         <v>3417714</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H39" s="7">
         <v>3293</v>
@@ -3558,13 +3564,13 @@
         <v>3552336</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M39" s="7">
         <v>6493</v>
@@ -3573,18 +3579,18 @@
         <v>6970050</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3603,7 +3609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD7B490A-525D-44D2-9585-3E95607D2FCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A353D2F2-7455-467F-99B9-4DFCB46BBEFE}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3620,7 +3626,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3727,13 +3733,13 @@
         <v>5015</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>201</v>
+        <v>143</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3748,7 +3754,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -3760,10 +3766,10 @@
         <v>27</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,13 +3784,13 @@
         <v>4977</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3799,7 +3805,7 @@
         <v>14</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -3808,13 +3814,13 @@
         <v>4977</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3835,7 +3841,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3850,7 +3856,7 @@
         <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -3859,7 +3865,7 @@
         <v>1004</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>12</v>
@@ -3880,13 +3886,13 @@
         <v>888</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3901,7 +3907,7 @@
         <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -3916,7 +3922,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,13 +3937,13 @@
         <v>3014</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>102</v>
+        <v>208</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -3952,7 +3958,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>13</v>
+        <v>209</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -3961,13 +3967,13 @@
         <v>4972</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>163</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3982,13 +3988,13 @@
         <v>4313</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -4003,7 +4009,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -4012,13 +4018,13 @@
         <v>5253</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,13 +4039,13 @@
         <v>1845</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -4048,13 +4054,13 @@
         <v>1194</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -4063,19 +4069,19 @@
         <v>3039</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>49</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="7">
         <v>742</v>
@@ -4084,13 +4090,13 @@
         <v>733290</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="H11" s="7">
         <v>888</v>
@@ -4099,13 +4105,13 @@
         <v>990569</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M11" s="7">
         <v>1630</v>
@@ -4114,13 +4120,13 @@
         <v>1723859</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,13 +4141,13 @@
         <v>754347</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H12" s="7">
         <v>892</v>
@@ -4150,13 +4156,13 @@
         <v>994660</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M12" s="7">
         <v>1654</v>
@@ -4165,18 +4171,18 @@
         <v>1749007</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4188,13 +4194,13 @@
         <v>14240</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>63</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -4203,13 +4209,13 @@
         <v>3103</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>25</v>
+        <v>189</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -4218,13 +4224,13 @@
         <v>17343</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>217</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4245,7 +4251,7 @@
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>205</v>
+        <v>13</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -4254,13 +4260,13 @@
         <v>3791</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>218</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>216</v>
+        <v>44</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -4269,13 +4275,13 @@
         <v>11212</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>15</v>
+        <v>220</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,13 +4296,13 @@
         <v>42768</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>201</v>
+        <v>119</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H15" s="7">
         <v>5</v>
@@ -4305,13 +4311,13 @@
         <v>4800</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>221</v>
+        <v>64</v>
       </c>
       <c r="M15" s="7">
         <v>46</v>
@@ -4320,13 +4326,13 @@
         <v>47568</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4341,13 +4347,13 @@
         <v>21075</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -4356,13 +4362,13 @@
         <v>5131</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -4371,13 +4377,13 @@
         <v>26206</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4392,13 +4398,13 @@
         <v>66615</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -4407,13 +4413,13 @@
         <v>14111</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="M17" s="7">
         <v>78</v>
@@ -4422,13 +4428,13 @@
         <v>80726</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>165</v>
+        <v>231</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,13 +4449,13 @@
         <v>54093</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>232</v>
+        <v>96</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
@@ -4458,13 +4464,13 @@
         <v>17790</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>234</v>
+        <v>133</v>
       </c>
       <c r="M18" s="7">
         <v>68</v>
@@ -4473,13 +4479,13 @@
         <v>71883</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>236</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,13 +4500,13 @@
         <v>44310</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>73</v>
+        <v>231</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>139</v>
+        <v>239</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -4509,13 +4515,13 @@
         <v>9152</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>28</v>
+        <v>240</v>
       </c>
       <c r="M19" s="7">
         <v>50</v>
@@ -4524,19 +4530,19 @@
         <v>53462</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>1717</v>
@@ -4545,13 +4551,13 @@
         <v>1825863</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H20" s="7">
         <v>1849</v>
@@ -4560,13 +4566,13 @@
         <v>1930422</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M20" s="7">
         <v>3566</v>
@@ -4575,13 +4581,13 @@
         <v>3756285</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,13 +4602,13 @@
         <v>2076385</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>1908</v>
@@ -4611,13 +4617,13 @@
         <v>1988300</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>3860</v>
@@ -4626,18 +4632,18 @@
         <v>4064685</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4649,13 +4655,13 @@
         <v>4298</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>66</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4682,10 +4688,10 @@
         <v>20</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>251</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,7 +4712,7 @@
         <v>14</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -4736,7 +4742,7 @@
         <v>14</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4751,13 +4757,13 @@
         <v>14723</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -4766,13 +4772,13 @@
         <v>5003</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>184</v>
+        <v>255</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>31</v>
+        <v>256</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -4781,13 +4787,13 @@
         <v>19725</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>256</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,13 +4808,13 @@
         <v>8683</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4832,13 +4838,13 @@
         <v>8683</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>38</v>
+        <v>256</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,13 +4859,13 @@
         <v>18805</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>260</v>
+        <v>87</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -4868,13 +4874,13 @@
         <v>6948</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>85</v>
+        <v>264</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>33</v>
+        <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>262</v>
+        <v>140</v>
       </c>
       <c r="M26" s="7">
         <v>25</v>
@@ -4883,13 +4889,13 @@
         <v>25754</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>73</v>
+        <v>266</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4910,13 @@
         <v>21945</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>264</v>
+        <v>142</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>265</v>
+        <v>89</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H27" s="7">
         <v>6</v>
@@ -4919,13 +4925,13 @@
         <v>5782</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>267</v>
+        <v>43</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>44</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>72</v>
+        <v>269</v>
       </c>
       <c r="M27" s="7">
         <v>27</v>
@@ -4934,13 +4940,13 @@
         <v>27727</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,13 +4961,13 @@
         <v>14485</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>141</v>
+        <v>223</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>86</v>
+        <v>273</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -4970,13 +4976,13 @@
         <v>6918</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M28" s="7">
         <v>20</v>
@@ -4985,19 +4991,19 @@
         <v>21403</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>131</v>
+        <v>276</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>85</v>
+        <v>277</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7">
         <v>423</v>
@@ -5006,13 +5012,13 @@
         <v>463947</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="H29" s="7">
         <v>501</v>
@@ -5021,13 +5027,13 @@
         <v>524488</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="M29" s="7">
         <v>924</v>
@@ -5036,13 +5042,13 @@
         <v>988436</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5057,13 +5063,13 @@
         <v>546886</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H30" s="7">
         <v>526</v>
@@ -5072,13 +5078,13 @@
         <v>549140</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M30" s="7">
         <v>1027</v>
@@ -5087,13 +5093,13 @@
         <v>1096026</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5110,13 +5116,13 @@
         <v>23552</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>283</v>
+        <v>189</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>255</v>
+        <v>98</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -5128,10 +5134,10 @@
         <v>16</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="M31" s="7">
         <v>24</v>
@@ -5143,10 +5149,10 @@
         <v>20</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>224</v>
+        <v>165</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5161,13 +5167,13 @@
         <v>12398</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>285</v>
+        <v>164</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -5176,13 +5182,13 @@
         <v>3791</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>224</v>
+        <v>130</v>
       </c>
       <c r="M32" s="7">
         <v>15</v>
@@ -5191,13 +5197,13 @@
         <v>16189</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>286</v>
+        <v>29</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5212,13 +5218,13 @@
         <v>58496</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>239</v>
+        <v>288</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H33" s="7">
         <v>10</v>
@@ -5227,13 +5233,13 @@
         <v>9802</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>286</v>
+        <v>220</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="M33" s="7">
         <v>66</v>
@@ -5242,13 +5248,13 @@
         <v>68298</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5263,13 +5269,13 @@
         <v>30646</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>184</v>
+        <v>255</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>62</v>
+        <v>291</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="H34" s="7">
         <v>5</v>
@@ -5281,10 +5287,10 @@
         <v>15</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="M34" s="7">
         <v>35</v>
@@ -5293,13 +5299,13 @@
         <v>35777</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>290</v>
+        <v>175</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>228</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5314,13 +5320,13 @@
         <v>88435</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>219</v>
+        <v>294</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>292</v>
+        <v>91</v>
       </c>
       <c r="H35" s="7">
         <v>24</v>
@@ -5329,13 +5335,13 @@
         <v>23017</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>216</v>
+        <v>138</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="M35" s="7">
         <v>108</v>
@@ -5344,13 +5350,13 @@
         <v>111451</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>180</v>
+        <v>296</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>294</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5365,13 +5371,13 @@
         <v>80352</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>177</v>
+        <v>298</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>296</v>
+        <v>145</v>
       </c>
       <c r="H36" s="7">
         <v>25</v>
@@ -5380,13 +5386,13 @@
         <v>24512</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>181</v>
+        <v>85</v>
       </c>
       <c r="M36" s="7">
         <v>100</v>
@@ -5395,13 +5401,13 @@
         <v>104864</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>121</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5416,13 +5422,13 @@
         <v>60640</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>298</v>
+        <v>149</v>
       </c>
       <c r="H37" s="7">
         <v>17</v>
@@ -5434,10 +5440,10 @@
         <v>44</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>162</v>
+        <v>300</v>
       </c>
       <c r="M37" s="7">
         <v>73</v>
@@ -5446,19 +5452,19 @@
         <v>77904</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C38" s="7">
         <v>2882</v>
@@ -5467,13 +5473,13 @@
         <v>3023100</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H38" s="7">
         <v>3238</v>
@@ -5482,13 +5488,13 @@
         <v>3445479</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M38" s="7">
         <v>6120</v>
@@ -5497,13 +5503,13 @@
         <v>6468580</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>115</v>
+        <v>309</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5518,13 +5524,13 @@
         <v>3377618</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H39" s="7">
         <v>3326</v>
@@ -5533,13 +5539,13 @@
         <v>3532100</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M39" s="7">
         <v>6541</v>
@@ -5548,18 +5554,18 @@
         <v>6909718</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -5578,7 +5584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0165A0D1-2D09-4E0F-ACFC-E1433D75AB7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22081A09-6067-4E76-A1E7-43A4B2895DD5}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5595,7 +5601,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5702,13 +5708,13 @@
         <v>2466</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>312</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5723,7 +5729,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>33</v>
+        <v>186</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -5732,13 +5738,13 @@
         <v>3675</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5753,13 +5759,13 @@
         <v>904</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>223</v>
+        <v>300</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -5768,13 +5774,13 @@
         <v>812</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -5783,13 +5789,13 @@
         <v>1717</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>167</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5810,7 +5816,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>251</v>
+        <v>98</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5840,7 +5846,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,13 +5861,13 @@
         <v>657</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5870,13 +5876,13 @@
         <v>575</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>309</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -5891,7 +5897,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>309</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,13 +5912,13 @@
         <v>5447</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -5921,13 +5927,13 @@
         <v>2803</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>105</v>
+        <v>240</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -5936,13 +5942,13 @@
         <v>8250</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,7 +5969,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6008,13 +6014,13 @@
         <v>2185</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>311</v>
+        <v>168</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -6029,7 +6035,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>217</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -6044,13 +6050,13 @@
         <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="7">
         <v>677</v>
@@ -6059,13 +6065,13 @@
         <v>528818</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>208</v>
+        <v>315</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H11" s="7">
         <v>1416</v>
@@ -6074,13 +6080,13 @@
         <v>826469</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="M11" s="7">
         <v>2093</v>
@@ -6089,13 +6095,13 @@
         <v>1355288</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6110,13 +6116,13 @@
         <v>541634</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H12" s="7">
         <v>1425</v>
@@ -6125,13 +6131,13 @@
         <v>832612</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M12" s="7">
         <v>2116</v>
@@ -6140,18 +6146,18 @@
         <v>1374246</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6163,13 +6169,13 @@
         <v>7197</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -6184,7 +6190,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -6196,10 +6202,10 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6214,13 +6220,13 @@
         <v>7389</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>320</v>
+        <v>191</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -6235,7 +6241,7 @@
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -6244,13 +6250,13 @@
         <v>11856</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6265,13 +6271,13 @@
         <v>65402</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>321</v>
+        <v>145</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>166</v>
+        <v>323</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H15" s="7">
         <v>12</v>
@@ -6280,13 +6286,13 @@
         <v>12360</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>90</v>
+        <v>203</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="M15" s="7">
         <v>56</v>
@@ -6295,13 +6301,13 @@
         <v>77762</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>117</v>
+        <v>325</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>323</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6316,13 +6322,13 @@
         <v>39479</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>79</v>
+        <v>326</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -6331,13 +6337,13 @@
         <v>14453</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>147</v>
+        <v>290</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -6346,13 +6352,13 @@
         <v>53932</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>326</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6367,13 +6373,13 @@
         <v>81918</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -6382,13 +6388,13 @@
         <v>10724</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>105</v>
+        <v>332</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
@@ -6397,13 +6403,13 @@
         <v>92642</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>129</v>
+        <v>294</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6418,13 +6424,13 @@
         <v>59595</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>150</v>
+        <v>335</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
@@ -6433,13 +6439,13 @@
         <v>13297</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>309</v>
+        <v>27</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M18" s="7">
         <v>55</v>
@@ -6448,13 +6454,13 @@
         <v>72892</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>269</v>
+        <v>37</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6469,13 +6475,13 @@
         <v>35784</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>334</v>
+        <v>206</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>338</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -6487,10 +6493,10 @@
         <v>31</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
@@ -6499,19 +6505,19 @@
         <v>40314</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>184</v>
+        <v>255</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>234</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
         <v>1794</v>
@@ -6520,13 +6526,13 @@
         <v>1864181</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="H20" s="7">
         <v>2855</v>
@@ -6535,13 +6541,13 @@
         <v>2184747</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="M20" s="7">
         <v>4649</v>
@@ -6550,13 +6556,13 @@
         <v>4048927</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>190</v>
+        <v>347</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>115</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6571,13 +6577,13 @@
         <v>2160945</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>2919</v>
@@ -6586,13 +6592,13 @@
         <v>2246575</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>4910</v>
@@ -6601,18 +6607,18 @@
         <v>4407520</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6624,13 +6630,13 @@
         <v>8292</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>106</v>
+        <v>290</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>98</v>
+        <v>186</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -6639,13 +6645,13 @@
         <v>1019</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>286</v>
+        <v>220</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -6654,13 +6660,13 @@
         <v>9311</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6675,13 +6681,13 @@
         <v>5942</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>171</v>
+        <v>84</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>250</v>
+        <v>351</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6696,7 +6702,7 @@
         <v>14</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -6705,13 +6711,13 @@
         <v>5942</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6726,13 +6732,13 @@
         <v>17713</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>343</v>
+        <v>172</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>344</v>
+        <v>254</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
@@ -6741,13 +6747,13 @@
         <v>9205</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="M24" s="7">
         <v>26</v>
@@ -6756,13 +6762,13 @@
         <v>26918</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>232</v>
+        <v>127</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>147</v>
+        <v>274</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>346</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6777,13 +6783,13 @@
         <v>15086</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>236</v>
+        <v>185</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>255</v>
+        <v>326</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -6792,13 +6798,13 @@
         <v>2458</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>348</v>
+        <v>256</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>349</v>
+        <v>77</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -6807,13 +6813,13 @@
         <v>17544</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>85</v>
+        <v>264</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6828,13 +6834,13 @@
         <v>37775</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>144</v>
+        <v>356</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -6843,13 +6849,13 @@
         <v>4920</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="M26" s="7">
         <v>40</v>
@@ -6858,13 +6864,13 @@
         <v>42695</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>125</v>
+        <v>359</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>72</v>
+        <v>360</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6879,13 +6885,13 @@
         <v>20634</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>177</v>
+        <v>242</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="H27" s="7">
         <v>13</v>
@@ -6894,13 +6900,13 @@
         <v>12095</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>143</v>
+        <v>364</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="M27" s="7">
         <v>32</v>
@@ -6909,13 +6915,13 @@
         <v>32729</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>359</v>
+        <v>67</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>360</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6930,13 +6936,13 @@
         <v>17163</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>311</v>
+        <v>79</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>86</v>
+        <v>367</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -6945,13 +6951,13 @@
         <v>1322</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="M28" s="7">
         <v>14</v>
@@ -6960,19 +6966,19 @@
         <v>18485</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>182</v>
+        <v>368</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>46</v>
+        <v>166</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7">
         <v>580</v>
@@ -6981,13 +6987,13 @@
         <v>550433</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="H29" s="7">
         <v>965</v>
@@ -6996,13 +7002,13 @@
         <v>681311</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="M29" s="7">
         <v>1545</v>
@@ -7011,13 +7017,13 @@
         <v>1231744</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7032,13 +7038,13 @@
         <v>673039</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H30" s="7">
         <v>1003</v>
@@ -7047,13 +7053,13 @@
         <v>712329</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M30" s="7">
         <v>1684</v>
@@ -7062,13 +7068,13 @@
         <v>1385368</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7085,13 +7091,13 @@
         <v>17955</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>28</v>
+        <v>176</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -7100,13 +7106,13 @@
         <v>4224</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>218</v>
+        <v>378</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>224</v>
+        <v>165</v>
       </c>
       <c r="M31" s="7">
         <v>20</v>
@@ -7115,13 +7121,13 @@
         <v>22180</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>49</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7136,13 +7142,13 @@
         <v>14235</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>122</v>
+        <v>191</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -7151,10 +7157,10 @@
         <v>5280</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>286</v>
+        <v>220</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>218</v>
+        <v>378</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>38</v>
@@ -7166,7 +7172,7 @@
         <v>19515</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>15</v>
@@ -7187,13 +7193,13 @@
         <v>84271</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>371</v>
+        <v>335</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="H33" s="7">
         <v>24</v>
@@ -7202,13 +7208,13 @@
         <v>21565</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>348</v>
+        <v>164</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>105</v>
+        <v>255</v>
       </c>
       <c r="M33" s="7">
         <v>83</v>
@@ -7217,13 +7223,13 @@
         <v>105836</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>141</v>
+        <v>380</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>373</v>
+        <v>123</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>374</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7238,13 +7244,13 @@
         <v>55223</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>375</v>
+        <v>297</v>
       </c>
       <c r="H34" s="7">
         <v>16</v>
@@ -7253,13 +7259,13 @@
         <v>17486</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="M34" s="7">
         <v>54</v>
@@ -7268,13 +7274,13 @@
         <v>72709</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>353</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7289,13 +7295,13 @@
         <v>125141</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>377</v>
+        <v>131</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H35" s="7">
         <v>27</v>
@@ -7307,10 +7313,10 @@
         <v>44</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>309</v>
+        <v>118</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="M35" s="7">
         <v>119</v>
@@ -7319,13 +7325,13 @@
         <v>143587</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>293</v>
+        <v>383</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>230</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7340,13 +7346,13 @@
         <v>80229</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>239</v>
+        <v>384</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="H36" s="7">
         <v>27</v>
@@ -7355,13 +7361,13 @@
         <v>25391</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>24</v>
+        <v>189</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="M36" s="7">
         <v>87</v>
@@ -7370,13 +7376,13 @@
         <v>105621</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>380</v>
+        <v>139</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>381</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7391,13 +7397,13 @@
         <v>55132</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>383</v>
+        <v>178</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="H37" s="7">
         <v>8</v>
@@ -7406,13 +7412,13 @@
         <v>6596</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M37" s="7">
         <v>45</v>
@@ -7421,19 +7427,19 @@
         <v>61728</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>28</v>
+        <v>240</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>102</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C38" s="7">
         <v>3051</v>
@@ -7442,13 +7448,13 @@
         <v>2943432</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="H38" s="7">
         <v>5236</v>
@@ -7457,13 +7463,13 @@
         <v>3692527</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>389</v>
+        <v>321</v>
       </c>
       <c r="M38" s="7">
         <v>8287</v>
@@ -7472,13 +7478,13 @@
         <v>6635959</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7493,13 +7499,13 @@
         <v>3375618</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H39" s="7">
         <v>5347</v>
@@ -7508,13 +7514,13 @@
         <v>3791516</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M39" s="7">
         <v>8710</v>
@@ -7523,18 +7529,18 @@
         <v>7167134</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34B04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34B04-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48C919B0-5501-433D-8CBE-B7E975CA0EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB6F48BD-CDF7-40B7-B58D-BD7E9A2ABD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6E537CB4-B13B-4EB6-9A7B-27BF9034F1CE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3F458023-5F4A-4D12-8044-2D45E055DFF6}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="393">
   <si>
     <t>Población según el número de días a la semana que realiza un entrenamiento físico deportivo como fútbol, baloncesto, ciclismo, natación de competición, judo, kárate o similares en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -976,253 +976,247 @@
     <t>Población según el número de días a la semana que realiza un entrenamiento físico deportivo como fútbol, baloncesto, ciclismo, natación de competición, judo, kárate o similares en 2023 (Tasa respuesta: 99,87%)</t>
   </si>
   <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
+    <t>3,67%</t>
   </si>
   <si>
     <t>1,29%</t>
   </si>
   <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
     <t>2,55%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
   </si>
 </sst>
 </file>
@@ -1634,7 +1628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F798D8-0807-4C85-8AF5-DC283BC65A99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4858FC7-1BC7-4DB8-BCE4-F863BB804C3F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2127,7 +2121,7 @@
         <v>1242</v>
       </c>
       <c r="I11" s="7">
-        <v>1331868</v>
+        <v>1331869</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>52</v>
@@ -2178,7 +2172,7 @@
         <v>1247</v>
       </c>
       <c r="I12" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>58</v>
@@ -3064,7 +3058,7 @@
         <v>774</v>
       </c>
       <c r="N29" s="7">
-        <v>858591</v>
+        <v>858592</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>159</v>
@@ -3115,7 +3109,7 @@
         <v>850</v>
       </c>
       <c r="N30" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>58</v>
@@ -3510,7 +3504,7 @@
         <v>3250</v>
       </c>
       <c r="I38" s="7">
-        <v>3505673</v>
+        <v>3505674</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>195</v>
@@ -3561,7 +3555,7 @@
         <v>3293</v>
       </c>
       <c r="I39" s="7">
-        <v>3552336</v>
+        <v>3552337</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>58</v>
@@ -3609,7 +3603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A353D2F2-7455-467F-99B9-4DFCB46BBEFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB21C7B-BEE7-4C4F-A4C7-AD06E81086A4}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5090,7 +5084,7 @@
         <v>1027</v>
       </c>
       <c r="N30" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>58</v>
@@ -5584,7 +5578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22081A09-6067-4E76-A1E7-43A4B2895DD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048A0538-5D35-4AD4-91D5-82FB927F6930}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5705,22 +5699,22 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>2466</v>
+        <v>2230</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>312</v>
+        <v>172</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>1209</v>
+        <v>1097</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>15</v>
@@ -5729,22 +5723,22 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>186</v>
+        <v>30</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>3675</v>
+        <v>3327</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5756,7 +5750,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>904</v>
+        <v>869</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>69</v>
@@ -5765,13 +5759,13 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>812</v>
+        <v>790</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>42</v>
@@ -5780,22 +5774,22 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>1717</v>
+        <v>1659</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,16 +5801,16 @@
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>1156</v>
+        <v>959</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5837,7 +5831,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>1156</v>
+        <v>959</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>23</v>
@@ -5846,7 +5840,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,7 +5852,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>657</v>
+        <v>609</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>63</v>
@@ -5867,13 +5861,13 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>240</v>
+        <v>313</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>575</v>
+        <v>536</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>207</v>
@@ -5882,13 +5876,13 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>1232</v>
+        <v>1145</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>16</v>
@@ -5909,46 +5903,46 @@
         <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>5447</v>
+        <v>5055</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>224</v>
+        <v>314</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>167</v>
+        <v>256</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
       </c>
       <c r="I8" s="7">
-        <v>2803</v>
+        <v>2411</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>167</v>
+        <v>316</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>240</v>
+        <v>28</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
       </c>
       <c r="N8" s="7">
-        <v>8250</v>
+        <v>7466</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6011,22 +6005,22 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>2185</v>
+        <v>1985</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>168</v>
+        <v>97</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>744</v>
+        <v>687</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>16</v>
@@ -6035,13 +6029,13 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>2929</v>
+        <v>2672</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
@@ -6050,7 +6044,7 @@
         <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>60</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6062,46 +6056,46 @@
         <v>677</v>
       </c>
       <c r="D11" s="7">
-        <v>528818</v>
+        <v>503230</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H11" s="7">
         <v>1416</v>
       </c>
       <c r="I11" s="7">
-        <v>826469</v>
+        <v>747115</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M11" s="7">
         <v>2093</v>
       </c>
       <c r="N11" s="7">
-        <v>1355288</v>
+        <v>1250345</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,7 +6107,7 @@
         <v>691</v>
       </c>
       <c r="D12" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>58</v>
@@ -6128,7 +6122,7 @@
         <v>1425</v>
       </c>
       <c r="I12" s="7">
-        <v>832612</v>
+        <v>752635</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>58</v>
@@ -6143,7 +6137,7 @@
         <v>2116</v>
       </c>
       <c r="N12" s="7">
-        <v>1374246</v>
+        <v>1267574</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>58</v>
@@ -6166,46 +6160,46 @@
         <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>7197</v>
+        <v>6207</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>1997</v>
+        <v>1752</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
       </c>
       <c r="N13" s="7">
-        <v>9194</v>
+        <v>7959</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>205</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>23</v>
+        <v>162</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6217,46 +6211,46 @@
         <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>7389</v>
+        <v>10287</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>191</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>4467</v>
+        <v>3909</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
       </c>
       <c r="N14" s="7">
-        <v>11856</v>
+        <v>14196</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,46 +6262,46 @@
         <v>44</v>
       </c>
       <c r="D15" s="7">
-        <v>65402</v>
+        <v>63855</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>145</v>
+        <v>222</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>323</v>
+        <v>182</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H15" s="7">
         <v>12</v>
       </c>
       <c r="I15" s="7">
-        <v>12360</v>
+        <v>10928</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>241</v>
+        <v>101</v>
       </c>
       <c r="M15" s="7">
         <v>56</v>
       </c>
       <c r="N15" s="7">
-        <v>77762</v>
+        <v>74782</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>183</v>
+        <v>37</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>325</v>
+        <v>95</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>149</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,46 +6313,46 @@
         <v>26</v>
       </c>
       <c r="D16" s="7">
-        <v>39479</v>
+        <v>39312</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>299</v>
+        <v>148</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
       </c>
       <c r="I16" s="7">
-        <v>14453</v>
+        <v>12489</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
       </c>
       <c r="N16" s="7">
-        <v>53932</v>
+        <v>51802</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>121</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>299</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6370,46 +6364,46 @@
         <v>52</v>
       </c>
       <c r="D17" s="7">
-        <v>81918</v>
+        <v>78424</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>329</v>
+        <v>179</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
       </c>
       <c r="I17" s="7">
-        <v>10724</v>
+        <v>9880</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>332</v>
+        <v>252</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
       </c>
       <c r="N17" s="7">
-        <v>92642</v>
+        <v>88305</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>67</v>
+        <v>301</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>333</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6421,46 +6415,46 @@
         <v>41</v>
       </c>
       <c r="D18" s="7">
-        <v>59595</v>
+        <v>60472</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
       </c>
       <c r="I18" s="7">
-        <v>13297</v>
+        <v>11286</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>337</v>
+        <v>101</v>
       </c>
       <c r="M18" s="7">
         <v>55</v>
       </c>
       <c r="N18" s="7">
-        <v>72892</v>
+        <v>71759</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>37</v>
+        <v>231</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>289</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6472,46 +6466,46 @@
         <v>23</v>
       </c>
       <c r="D19" s="7">
-        <v>35784</v>
+        <v>33394</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>206</v>
+        <v>335</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
       </c>
       <c r="I19" s="7">
-        <v>4531</v>
+        <v>4204</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>207</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
       </c>
       <c r="N19" s="7">
-        <v>40314</v>
+        <v>37598</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>255</v>
+        <v>337</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>235</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6523,46 +6517,46 @@
         <v>1794</v>
       </c>
       <c r="D20" s="7">
-        <v>1864181</v>
+        <v>1997345</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="H20" s="7">
         <v>2855</v>
       </c>
       <c r="I20" s="7">
-        <v>2184747</v>
+        <v>2181074</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="M20" s="7">
         <v>4649</v>
       </c>
       <c r="N20" s="7">
-        <v>4048927</v>
+        <v>4178420</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6574,7 +6568,7 @@
         <v>1991</v>
       </c>
       <c r="D21" s="7">
-        <v>2160945</v>
+        <v>2289297</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>58</v>
@@ -6589,7 +6583,7 @@
         <v>2919</v>
       </c>
       <c r="I21" s="7">
-        <v>2246575</v>
+        <v>2235523</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>58</v>
@@ -6604,7 +6598,7 @@
         <v>4910</v>
       </c>
       <c r="N21" s="7">
-        <v>4407520</v>
+        <v>4524821</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>58</v>
@@ -6627,22 +6621,22 @@
         <v>7</v>
       </c>
       <c r="D22" s="7">
-        <v>8292</v>
+        <v>7625</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>290</v>
+        <v>219</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>186</v>
+        <v>92</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>1019</v>
+        <v>938</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>220</v>
@@ -6657,16 +6651,16 @@
         <v>8</v>
       </c>
       <c r="N22" s="7">
-        <v>9311</v>
+        <v>8563</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>118</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>350</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6678,16 +6672,16 @@
         <v>5</v>
       </c>
       <c r="D23" s="7">
-        <v>5942</v>
+        <v>5634</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>84</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6708,16 +6702,16 @@
         <v>5</v>
       </c>
       <c r="N23" s="7">
-        <v>5942</v>
+        <v>5634</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>189</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>62</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6729,46 +6723,46 @@
         <v>14</v>
       </c>
       <c r="D24" s="7">
-        <v>17713</v>
+        <v>16712</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>172</v>
+        <v>349</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>254</v>
+        <v>350</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
       </c>
       <c r="I24" s="7">
-        <v>9205</v>
+        <v>8570</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>350</v>
+        <v>79</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>177</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M24" s="7">
         <v>26</v>
       </c>
       <c r="N24" s="7">
-        <v>26918</v>
+        <v>25282</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>127</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>68</v>
+        <v>352</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6780,13 +6774,13 @@
         <v>11</v>
       </c>
       <c r="D25" s="7">
-        <v>15086</v>
+        <v>14463</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>185</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>326</v>
+        <v>123</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>353</v>
@@ -6795,7 +6789,7 @@
         <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>2458</v>
+        <v>2287</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>256</v>
@@ -6804,22 +6798,22 @@
         <v>42</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>77</v>
+        <v>354</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
       </c>
       <c r="N25" s="7">
-        <v>17544</v>
+        <v>16749</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>264</v>
+        <v>187</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6831,46 +6825,46 @@
         <v>33</v>
       </c>
       <c r="D26" s="7">
-        <v>37775</v>
+        <v>34997</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
       </c>
       <c r="I26" s="7">
-        <v>4920</v>
+        <v>4677</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>118</v>
+        <v>316</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>358</v>
+        <v>146</v>
       </c>
       <c r="M26" s="7">
         <v>40</v>
       </c>
       <c r="N26" s="7">
-        <v>42695</v>
+        <v>39674</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>359</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6882,46 +6876,46 @@
         <v>19</v>
       </c>
       <c r="D27" s="7">
-        <v>20634</v>
+        <v>20244</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="H27" s="7">
         <v>13</v>
       </c>
       <c r="I27" s="7">
-        <v>12095</v>
+        <v>10745</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M27" s="7">
         <v>32</v>
       </c>
       <c r="N27" s="7">
-        <v>32729</v>
+        <v>30989</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="P27" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="Q27" s="7" t="s">
-        <v>271</v>
+        <v>367</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6933,46 +6927,46 @@
         <v>12</v>
       </c>
       <c r="D28" s="7">
-        <v>17163</v>
+        <v>16360</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>351</v>
+        <v>227</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
       </c>
       <c r="I28" s="7">
-        <v>1322</v>
+        <v>1178</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>116</v>
+        <v>205</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="M28" s="7">
         <v>14</v>
       </c>
       <c r="N28" s="7">
-        <v>18485</v>
+        <v>17539</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>368</v>
+        <v>296</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>166</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>66</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6984,7 +6978,7 @@
         <v>580</v>
       </c>
       <c r="D29" s="7">
-        <v>550433</v>
+        <v>530589</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>369</v>
@@ -6999,7 +6993,7 @@
         <v>965</v>
       </c>
       <c r="I29" s="7">
-        <v>681311</v>
+        <v>630840</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>372</v>
@@ -7014,7 +7008,7 @@
         <v>1545</v>
       </c>
       <c r="N29" s="7">
-        <v>1231744</v>
+        <v>1161429</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>375</v>
@@ -7035,7 +7029,7 @@
         <v>681</v>
       </c>
       <c r="D30" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>58</v>
@@ -7050,7 +7044,7 @@
         <v>1003</v>
       </c>
       <c r="I30" s="7">
-        <v>712329</v>
+        <v>659234</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>58</v>
@@ -7065,7 +7059,7 @@
         <v>1684</v>
       </c>
       <c r="N30" s="7">
-        <v>1385368</v>
+        <v>1305857</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>58</v>
@@ -7088,46 +7082,46 @@
         <v>15</v>
       </c>
       <c r="D31" s="7">
-        <v>17955</v>
+        <v>16062</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>235</v>
+        <v>25</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>17</v>
+        <v>203</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>176</v>
+        <v>46</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
       </c>
       <c r="I31" s="7">
-        <v>4224</v>
+        <v>3787</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>378</v>
+        <v>287</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M31" s="7">
         <v>20</v>
       </c>
       <c r="N31" s="7">
-        <v>22180</v>
+        <v>19849</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>211</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7139,46 +7133,46 @@
         <v>11</v>
       </c>
       <c r="D32" s="7">
-        <v>14235</v>
+        <v>16790</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
       </c>
       <c r="I32" s="7">
-        <v>5280</v>
+        <v>4699</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>220</v>
+        <v>29</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>378</v>
+        <v>287</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="M32" s="7">
         <v>15</v>
       </c>
       <c r="N32" s="7">
-        <v>19515</v>
+        <v>21489</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7190,13 +7184,13 @@
         <v>59</v>
       </c>
       <c r="D33" s="7">
-        <v>84271</v>
+        <v>81525</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>89</v>
+        <v>378</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>335</v>
+        <v>74</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>379</v>
@@ -7205,31 +7199,31 @@
         <v>24</v>
       </c>
       <c r="I33" s="7">
-        <v>21565</v>
+        <v>19498</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>64</v>
+        <v>235</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>255</v>
+        <v>171</v>
       </c>
       <c r="M33" s="7">
         <v>83</v>
       </c>
       <c r="N33" s="7">
-        <v>105836</v>
+        <v>101023</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>380</v>
+        <v>146</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>298</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7241,46 +7235,46 @@
         <v>38</v>
       </c>
       <c r="D34" s="7">
-        <v>55223</v>
+        <v>54384</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>188</v>
+        <v>366</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>123</v>
+        <v>224</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="H34" s="7">
         <v>16</v>
       </c>
       <c r="I34" s="7">
-        <v>17486</v>
+        <v>15312</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>300</v>
+        <v>166</v>
       </c>
       <c r="M34" s="7">
         <v>54</v>
       </c>
       <c r="N34" s="7">
-        <v>72709</v>
+        <v>69696</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>224</v>
+        <v>314</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7292,46 +7286,46 @@
         <v>92</v>
       </c>
       <c r="D35" s="7">
-        <v>125141</v>
+        <v>118477</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>381</v>
+        <v>179</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>131</v>
+        <v>380</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>382</v>
+        <v>80</v>
       </c>
       <c r="H35" s="7">
         <v>27</v>
       </c>
       <c r="I35" s="7">
-        <v>18447</v>
+        <v>16967</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>13</v>
+        <v>229</v>
       </c>
       <c r="M35" s="7">
         <v>119</v>
       </c>
       <c r="N35" s="7">
-        <v>143587</v>
+        <v>135444</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>96</v>
+        <v>298</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>383</v>
+        <v>172</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>89</v>
+        <v>381</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7343,46 +7337,46 @@
         <v>60</v>
       </c>
       <c r="D36" s="7">
-        <v>80229</v>
+        <v>80716</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>385</v>
+        <v>88</v>
       </c>
       <c r="H36" s="7">
         <v>27</v>
       </c>
       <c r="I36" s="7">
-        <v>25391</v>
+        <v>22031</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>189</v>
+        <v>20</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="M36" s="7">
         <v>87</v>
       </c>
       <c r="N36" s="7">
-        <v>105621</v>
+        <v>102748</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>139</v>
+        <v>382</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>95</v>
+        <v>259</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>335</v>
+        <v>383</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7394,22 +7388,22 @@
         <v>37</v>
       </c>
       <c r="D37" s="7">
-        <v>55132</v>
+        <v>51739</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>383</v>
+        <v>143</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>178</v>
+        <v>241</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>386</v>
+        <v>99</v>
       </c>
       <c r="H37" s="7">
         <v>8</v>
       </c>
       <c r="I37" s="7">
-        <v>6596</v>
+        <v>6069</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>69</v>
@@ -7418,22 +7412,22 @@
         <v>23</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M37" s="7">
         <v>45</v>
       </c>
       <c r="N37" s="7">
-        <v>61728</v>
+        <v>57808</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>240</v>
+        <v>312</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>169</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7445,46 +7439,46 @@
         <v>3051</v>
       </c>
       <c r="D38" s="7">
-        <v>2943432</v>
+        <v>3031165</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H38" s="7">
         <v>5236</v>
       </c>
       <c r="I38" s="7">
-        <v>3692527</v>
+        <v>3559030</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>321</v>
+        <v>389</v>
       </c>
       <c r="M38" s="7">
         <v>8287</v>
       </c>
       <c r="N38" s="7">
-        <v>6635959</v>
+        <v>6590195</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7496,7 +7490,7 @@
         <v>3363</v>
       </c>
       <c r="D39" s="7">
-        <v>3375618</v>
+        <v>3450859</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>58</v>
@@ -7511,7 +7505,7 @@
         <v>5347</v>
       </c>
       <c r="I39" s="7">
-        <v>3791516</v>
+        <v>3647393</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>58</v>
@@ -7526,7 +7520,7 @@
         <v>8710</v>
       </c>
       <c r="N39" s="7">
-        <v>7167134</v>
+        <v>7098252</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>58</v>

--- a/data/trans_orig/P34B04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34B04-Estudios-trans_orig.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Número medio de días a la semana que la población realiza un entrenamiento físico deportivo como fútbol, baloncesto, ciclismo, natación de competición, judo, kárate o similares</t>
+          <t>Número medio de días a la semana que la población realiza un entrenamiento físico deportivo, como fútbol, baloncesto, ciclismo, natación de competición, judo, kárate o similares</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
